--- a/Grzałkologia stosowana.xlsx
+++ b/Grzałkologia stosowana.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Dusza\Documents\GitHub\PVtesty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dom\Desktop\Git\PVtesty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D343DE9-10C0-435B-931F-35A468197100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F294ACD-BD9A-48D5-83B0-86C41C774C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A525B563-1C57-4D4E-89FF-D19E607E9193}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A525B563-1C57-4D4E-89FF-D19E607E9193}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>I</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>P grzałki 17,63</t>
+  </si>
+  <si>
+    <t>sprawność śr</t>
+  </si>
+  <si>
+    <t>sprawność przeł</t>
+  </si>
+  <si>
+    <t>sprawność 17,63 ohm</t>
   </si>
 </sst>
 </file>
@@ -163,8 +172,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.1043795643488835E-2"/>
-          <c:y val="1.2990486058901999E-2"/>
+          <c:x val="4.4364098891359942E-2"/>
+          <c:y val="1.1192066371859365E-2"/>
           <c:w val="0.92825622097150773"/>
           <c:h val="0.85333069879708345"/>
         </c:manualLayout>
@@ -3099,16 +3108,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>156801</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>537801</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76359</xdr:rowOff>
+      <xdr:rowOff>20329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3433,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99430B4-5948-49EF-B3C2-E9E8425ECD74}">
-  <dimension ref="A2:AD110"/>
+  <dimension ref="A2:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF74" sqref="AF74"/>
+    <sheetView tabSelected="1" topLeftCell="AG13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG113" sqref="AG113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3446,9 +3455,11 @@
     <col min="16" max="17" width="9.140625" style="1"/>
     <col min="23" max="24" width="9.140625" style="1"/>
     <col min="29" max="30" width="9.140625" style="1"/>
+    <col min="32" max="32" width="21.28515625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="23.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3524,8 +3535,14 @@
       <c r="AD2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="AF2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3616,8 +3633,16 @@
         <f>AA3^2*AB3</f>
         <v>0.17630000000000001</v>
       </c>
+      <c r="AF3" s="1">
+        <f>(E3/K3)*100</f>
+        <v>3.6965408805031448</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>(AD3/K3)*100</f>
+        <v>0.92400419287211744</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3708,8 +3733,16 @@
         <f t="shared" ref="AD4:AD67" si="9">AA4^2*AB4</f>
         <v>0.70520000000000005</v>
       </c>
+      <c r="AF4" s="1">
+        <f t="shared" ref="AF4:AF67" si="10">(E4/K4)*100</f>
+        <v>7.3930817610062896</v>
+      </c>
+      <c r="AG4" s="1">
+        <f t="shared" ref="AG4:AG67" si="11">(AD4/K4)*100</f>
+        <v>1.8480083857442349</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3800,8 +3833,16 @@
         <f t="shared" si="9"/>
         <v>1.5866999999999998</v>
       </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="10"/>
+        <v>11.089622641509433</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" si="11"/>
+        <v>2.7720125786163519</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3892,8 +3933,16 @@
         <f t="shared" si="9"/>
         <v>2.8208000000000002</v>
       </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="10"/>
+        <v>14.786163522012579</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" si="11"/>
+        <v>3.6960167714884697</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3984,8 +4033,16 @@
         <f t="shared" si="9"/>
         <v>4.4074999999999998</v>
       </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="10"/>
+        <v>18.482704402515722</v>
+      </c>
+      <c r="AG7" s="1">
+        <f t="shared" si="11"/>
+        <v>4.6200209643605863</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4076,8 +4133,16 @@
         <f t="shared" si="9"/>
         <v>6.3467999999999991</v>
       </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="10"/>
+        <v>22.179245283018865</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="11"/>
+        <v>5.5440251572327037</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4168,8 +4233,16 @@
         <f t="shared" si="9"/>
         <v>8.6386999999999983</v>
       </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="10"/>
+        <v>25.875786163522012</v>
+      </c>
+      <c r="AG9" s="1">
+        <f t="shared" si="11"/>
+        <v>6.4680293501048203</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4260,8 +4333,16 @@
         <f t="shared" si="9"/>
         <v>11.283200000000001</v>
       </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="10"/>
+        <v>29.572327044025158</v>
+      </c>
+      <c r="AG10" s="1">
+        <f t="shared" si="11"/>
+        <v>7.3920335429769395</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4352,8 +4433,16 @@
         <f t="shared" si="9"/>
         <v>14.2803</v>
       </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="10"/>
+        <v>33.268867924528301</v>
+      </c>
+      <c r="AG11" s="1">
+        <f t="shared" si="11"/>
+        <v>8.3160377358490543</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4444,8 +4533,16 @@
         <f t="shared" si="9"/>
         <v>17.63</v>
       </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="10"/>
+        <v>36.965408805031444</v>
+      </c>
+      <c r="AG12" s="1">
+        <f t="shared" si="11"/>
+        <v>9.2400419287211726</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4536,8 +4633,16 @@
         <f t="shared" si="9"/>
         <v>21.332300000000004</v>
       </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="10"/>
+        <v>40.661949685534594</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" si="11"/>
+        <v>10.164046121593293</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4628,8 +4733,16 @@
         <f t="shared" si="9"/>
         <v>25.387199999999996</v>
       </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="10"/>
+        <v>44.35849056603773</v>
+      </c>
+      <c r="AG14" s="1">
+        <f t="shared" si="11"/>
+        <v>11.088050314465407</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4720,8 +4833,16 @@
         <f t="shared" si="9"/>
         <v>29.794700000000002</v>
       </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="10"/>
+        <v>48.055031446540887</v>
+      </c>
+      <c r="AG15" s="1">
+        <f t="shared" si="11"/>
+        <v>12.012054507337526</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4812,8 +4933,16 @@
         <f t="shared" si="9"/>
         <v>34.554799999999993</v>
       </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="10"/>
+        <v>51.751572327044023</v>
+      </c>
+      <c r="AG16" s="1">
+        <f t="shared" si="11"/>
+        <v>12.936058700209641</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4904,8 +5033,16 @@
         <f t="shared" si="9"/>
         <v>39.667499999999997</v>
       </c>
+      <c r="AF17" s="1">
+        <f t="shared" si="10"/>
+        <v>55.448113207547159</v>
+      </c>
+      <c r="AG17" s="1">
+        <f t="shared" si="11"/>
+        <v>13.860062893081757</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -4996,8 +5133,16 @@
         <f t="shared" si="9"/>
         <v>45.132800000000003</v>
       </c>
+      <c r="AF18" s="1">
+        <f t="shared" si="10"/>
+        <v>59.144654088050316</v>
+      </c>
+      <c r="AG18" s="1">
+        <f t="shared" si="11"/>
+        <v>14.784067085953879</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5088,8 +5233,16 @@
         <f t="shared" si="9"/>
         <v>50.950699999999991</v>
       </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="10"/>
+        <v>62.841194968553452</v>
+      </c>
+      <c r="AG19" s="1">
+        <f t="shared" si="11"/>
+        <v>15.708071278825992</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5180,8 +5333,16 @@
         <f t="shared" si="9"/>
         <v>57.121200000000002</v>
       </c>
+      <c r="AF20" s="1">
+        <f t="shared" si="10"/>
+        <v>66.537735849056602</v>
+      </c>
+      <c r="AG20" s="1">
+        <f t="shared" si="11"/>
+        <v>16.632075471698109</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5272,8 +5433,16 @@
         <f t="shared" si="9"/>
         <v>63.644299999999994</v>
       </c>
+      <c r="AF21" s="1">
+        <f t="shared" si="10"/>
+        <v>70.234276729559753</v>
+      </c>
+      <c r="AG21" s="1">
+        <f t="shared" si="11"/>
+        <v>17.55607966457023</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5364,8 +5533,16 @@
         <f t="shared" si="9"/>
         <v>70.52</v>
       </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="10"/>
+        <v>73.930817610062888</v>
+      </c>
+      <c r="AG22" s="1">
+        <f t="shared" si="11"/>
+        <v>18.480083857442345</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5456,8 +5633,16 @@
         <f t="shared" si="9"/>
         <v>77.7483</v>
       </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="10"/>
+        <v>77.627358490566039</v>
+      </c>
+      <c r="AG23" s="1">
+        <f t="shared" si="11"/>
+        <v>19.404088050314463</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5548,8 +5733,16 @@
         <f t="shared" si="9"/>
         <v>85.329200000000014</v>
       </c>
+      <c r="AF24" s="1">
+        <f t="shared" si="10"/>
+        <v>81.323899371069189</v>
+      </c>
+      <c r="AG24" s="1">
+        <f t="shared" si="11"/>
+        <v>20.328092243186585</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5640,8 +5833,16 @@
         <f t="shared" si="9"/>
         <v>93.262699999999981</v>
       </c>
+      <c r="AF25" s="1">
+        <f t="shared" si="10"/>
+        <v>85.02044025157231</v>
+      </c>
+      <c r="AG25" s="1">
+        <f t="shared" si="11"/>
+        <v>21.2520964360587</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5732,8 +5933,16 @@
         <f t="shared" si="9"/>
         <v>101.54879999999999</v>
       </c>
+      <c r="AF26" s="1">
+        <f t="shared" si="10"/>
+        <v>88.71698113207546</v>
+      </c>
+      <c r="AG26" s="1">
+        <f t="shared" si="11"/>
+        <v>22.176100628930815</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -5824,8 +6033,16 @@
         <f t="shared" si="9"/>
         <v>110.1875</v>
       </c>
+      <c r="AF27" s="1">
+        <f t="shared" si="10"/>
+        <v>92.413522012578625</v>
+      </c>
+      <c r="AG27" s="1">
+        <f t="shared" si="11"/>
+        <v>23.100104821802937</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5916,8 +6133,16 @@
         <f t="shared" si="9"/>
         <v>119.17880000000001</v>
       </c>
+      <c r="AF28" s="1">
+        <f t="shared" si="10"/>
+        <v>96.110062893081775</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" si="11"/>
+        <v>24.024109014675052</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -6008,8 +6233,16 @@
         <f t="shared" si="9"/>
         <v>128.52270000000001</v>
       </c>
+      <c r="AF29" s="1">
+        <f t="shared" si="10"/>
+        <v>99.806603773584897</v>
+      </c>
+      <c r="AG29" s="1">
+        <f t="shared" si="11"/>
+        <v>24.948113207547166</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -6100,8 +6333,16 @@
         <f t="shared" si="9"/>
         <v>138.21919999999997</v>
       </c>
+      <c r="AF30" s="1">
+        <f t="shared" si="10"/>
+        <v>51.744234800838562</v>
+      </c>
+      <c r="AG30" s="1">
+        <f t="shared" si="11"/>
+        <v>25.872117400419281</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -6192,8 +6433,16 @@
         <f t="shared" si="9"/>
         <v>148.26829999999998</v>
       </c>
+      <c r="AF31" s="1">
+        <f t="shared" si="10"/>
+        <v>53.592243186582799</v>
+      </c>
+      <c r="AG31" s="1">
+        <f t="shared" si="11"/>
+        <v>26.796121593291399</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6284,8 +6533,16 @@
         <f t="shared" si="9"/>
         <v>158.66999999999999</v>
       </c>
+      <c r="AF32" s="1">
+        <f t="shared" si="10"/>
+        <v>55.440251572327028</v>
+      </c>
+      <c r="AG32" s="1">
+        <f t="shared" si="11"/>
+        <v>27.720125786163514</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -6376,8 +6633,16 @@
         <f t="shared" si="9"/>
         <v>169.42430000000002</v>
       </c>
+      <c r="AF33" s="1">
+        <f t="shared" si="10"/>
+        <v>57.288259958071286</v>
+      </c>
+      <c r="AG33" s="1">
+        <f t="shared" si="11"/>
+        <v>28.644129979035643</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -6468,8 +6733,16 @@
         <f t="shared" si="9"/>
         <v>180.53120000000001</v>
       </c>
+      <c r="AF34" s="1">
+        <f t="shared" si="10"/>
+        <v>59.136268343815516</v>
+      </c>
+      <c r="AG34" s="1">
+        <f t="shared" si="11"/>
+        <v>29.568134171907758</v>
+      </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -6560,8 +6833,16 @@
         <f t="shared" si="9"/>
         <v>191.99069999999998</v>
       </c>
+      <c r="AF35" s="1">
+        <f t="shared" si="10"/>
+        <v>60.984276729559738</v>
+      </c>
+      <c r="AG35" s="1">
+        <f t="shared" si="11"/>
+        <v>30.492138364779869</v>
+      </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -6652,8 +6933,16 @@
         <f t="shared" si="9"/>
         <v>203.80279999999996</v>
       </c>
+      <c r="AF36" s="1">
+        <f t="shared" si="10"/>
+        <v>62.832285115303968</v>
+      </c>
+      <c r="AG36" s="1">
+        <f t="shared" si="11"/>
+        <v>31.416142557651984</v>
+      </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -6744,8 +7033,16 @@
         <f t="shared" si="9"/>
         <v>215.9675</v>
       </c>
+      <c r="AF37" s="1">
+        <f t="shared" si="10"/>
+        <v>64.680293501048212</v>
+      </c>
+      <c r="AG37" s="1">
+        <f t="shared" si="11"/>
+        <v>32.340146750524106</v>
+      </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -6836,8 +7133,16 @@
         <f t="shared" si="9"/>
         <v>228.48480000000001</v>
       </c>
+      <c r="AF38" s="1">
+        <f t="shared" si="10"/>
+        <v>66.528301886792434</v>
+      </c>
+      <c r="AG38" s="1">
+        <f t="shared" si="11"/>
+        <v>33.264150943396217</v>
+      </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -6928,8 +7233,16 @@
         <f t="shared" si="9"/>
         <v>241.35470000000001</v>
       </c>
+      <c r="AF39" s="1">
+        <f t="shared" si="10"/>
+        <v>68.376310272536685</v>
+      </c>
+      <c r="AG39" s="1">
+        <f t="shared" si="11"/>
+        <v>34.188155136268342</v>
+      </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -7020,8 +7333,16 @@
         <f t="shared" si="9"/>
         <v>254.57719999999998</v>
       </c>
+      <c r="AF40" s="1">
+        <f t="shared" si="10"/>
+        <v>70.224318658280922</v>
+      </c>
+      <c r="AG40" s="1">
+        <f t="shared" si="11"/>
+        <v>35.112159329140461</v>
+      </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -7112,8 +7433,16 @@
         <f t="shared" si="9"/>
         <v>268.15229999999997</v>
       </c>
+      <c r="AF41" s="1">
+        <f t="shared" si="10"/>
+        <v>72.072327044025158</v>
+      </c>
+      <c r="AG41" s="1">
+        <f t="shared" si="11"/>
+        <v>36.036163522012579</v>
+      </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -7204,8 +7533,16 @@
         <f t="shared" si="9"/>
         <v>282.08</v>
       </c>
+      <c r="AF42" s="1">
+        <f t="shared" si="10"/>
+        <v>73.920335429769381</v>
+      </c>
+      <c r="AG42" s="1">
+        <f t="shared" si="11"/>
+        <v>36.96016771488469</v>
+      </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -7296,8 +7633,16 @@
         <f t="shared" si="9"/>
         <v>296.36029999999994</v>
       </c>
+      <c r="AF43" s="1">
+        <f t="shared" si="10"/>
+        <v>75.768343815513617</v>
+      </c>
+      <c r="AG43" s="1">
+        <f t="shared" si="11"/>
+        <v>37.884171907756809</v>
+      </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -7388,8 +7733,16 @@
         <f t="shared" si="9"/>
         <v>310.9932</v>
       </c>
+      <c r="AF44" s="1">
+        <f t="shared" si="10"/>
+        <v>77.616352201257854</v>
+      </c>
+      <c r="AG44" s="1">
+        <f t="shared" si="11"/>
+        <v>38.808176100628927</v>
+      </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -7480,8 +7833,16 @@
         <f t="shared" si="9"/>
         <v>325.97869999999995</v>
       </c>
+      <c r="AF45" s="1">
+        <f t="shared" si="10"/>
+        <v>79.464360587002076</v>
+      </c>
+      <c r="AG45" s="1">
+        <f t="shared" si="11"/>
+        <v>39.732180293501038</v>
+      </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -7572,8 +7933,16 @@
         <f t="shared" si="9"/>
         <v>341.31680000000006</v>
       </c>
+      <c r="AF46" s="1">
+        <f t="shared" si="10"/>
+        <v>81.312368972746341</v>
+      </c>
+      <c r="AG46" s="1">
+        <f t="shared" si="11"/>
+        <v>40.656184486373171</v>
+      </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -7664,8 +8033,16 @@
         <f t="shared" si="9"/>
         <v>357.00749999999999</v>
       </c>
+      <c r="AF47" s="1">
+        <f t="shared" si="10"/>
+        <v>83.160377358490564</v>
+      </c>
+      <c r="AG47" s="1">
+        <f t="shared" si="11"/>
+        <v>41.580188679245282</v>
+      </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -7756,8 +8133,16 @@
         <f t="shared" si="9"/>
         <v>373.05079999999992</v>
       </c>
+      <c r="AF48" s="1">
+        <f t="shared" si="10"/>
+        <v>85.008385744234801</v>
+      </c>
+      <c r="AG48" s="1">
+        <f t="shared" si="11"/>
+        <v>42.5041928721174</v>
+      </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -7848,8 +8233,16 @@
         <f t="shared" si="9"/>
         <v>389.44670000000002</v>
       </c>
+      <c r="AF49" s="1">
+        <f t="shared" si="10"/>
+        <v>86.856394129979037</v>
+      </c>
+      <c r="AG49" s="1">
+        <f t="shared" si="11"/>
+        <v>43.428197064989519</v>
+      </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -7940,8 +8333,16 @@
         <f t="shared" si="9"/>
         <v>406.19519999999994</v>
       </c>
+      <c r="AF50" s="1">
+        <f t="shared" si="10"/>
+        <v>88.70440251572326</v>
+      </c>
+      <c r="AG50" s="1">
+        <f t="shared" si="11"/>
+        <v>44.35220125786163</v>
+      </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -8032,8 +8433,16 @@
         <f t="shared" si="9"/>
         <v>423.29630000000009</v>
       </c>
+      <c r="AF51" s="1">
+        <f t="shared" si="10"/>
+        <v>90.55241090146751</v>
+      </c>
+      <c r="AG51" s="1">
+        <f t="shared" si="11"/>
+        <v>45.276205450733755</v>
+      </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -8124,8 +8533,16 @@
         <f t="shared" si="9"/>
         <v>440.75</v>
       </c>
+      <c r="AF52" s="1">
+        <f t="shared" si="10"/>
+        <v>92.400419287211747</v>
+      </c>
+      <c r="AG52" s="1">
+        <f t="shared" si="11"/>
+        <v>46.200209643605874</v>
+      </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -8216,8 +8633,16 @@
         <f t="shared" si="9"/>
         <v>458.55629999999996</v>
       </c>
+      <c r="AF53" s="1">
+        <f t="shared" si="10"/>
+        <v>94.248427672955955</v>
+      </c>
+      <c r="AG53" s="1">
+        <f t="shared" si="11"/>
+        <v>47.124213836477978</v>
+      </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -8308,8 +8733,16 @@
         <f t="shared" si="9"/>
         <v>476.71520000000004</v>
       </c>
+      <c r="AF54" s="1">
+        <f t="shared" si="10"/>
+        <v>96.096436058700206</v>
+      </c>
+      <c r="AG54" s="1">
+        <f t="shared" si="11"/>
+        <v>48.048218029350103</v>
+      </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -8400,8 +8833,16 @@
         <f t="shared" si="9"/>
         <v>495.22669999999999</v>
       </c>
+      <c r="AF55" s="1">
+        <f t="shared" si="10"/>
+        <v>97.944444444444443</v>
+      </c>
+      <c r="AG55" s="1">
+        <f t="shared" si="11"/>
+        <v>48.972222222222221</v>
+      </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -8492,8 +8933,16 @@
         <f t="shared" si="9"/>
         <v>514.09080000000006</v>
       </c>
+      <c r="AF56" s="1">
+        <f t="shared" si="10"/>
+        <v>99.792452830188665</v>
+      </c>
+      <c r="AG56" s="1">
+        <f t="shared" si="11"/>
+        <v>49.896226415094333</v>
+      </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -8584,8 +9033,16 @@
         <f t="shared" si="9"/>
         <v>533.3075</v>
       </c>
+      <c r="AF57" s="1">
+        <f t="shared" si="10"/>
+        <v>50.820230607966451</v>
+      </c>
+      <c r="AG57" s="1">
+        <f t="shared" si="11"/>
+        <v>50.820230607966451</v>
+      </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -8676,8 +9133,16 @@
         <f t="shared" si="9"/>
         <v>552.87679999999989</v>
       </c>
+      <c r="AF58" s="1">
+        <f t="shared" si="10"/>
+        <v>51.744234800838562</v>
+      </c>
+      <c r="AG58" s="1">
+        <f t="shared" si="11"/>
+        <v>51.744234800838562</v>
+      </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -8768,8 +9233,16 @@
         <f t="shared" si="9"/>
         <v>572.79870000000005</v>
       </c>
+      <c r="AF59" s="1">
+        <f t="shared" si="10"/>
+        <v>52.668238993710695</v>
+      </c>
+      <c r="AG59" s="1">
+        <f t="shared" si="11"/>
+        <v>52.668238993710695</v>
+      </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>58</v>
       </c>
@@ -8860,8 +9333,16 @@
         <f t="shared" si="9"/>
         <v>593.07319999999993</v>
       </c>
+      <c r="AF60" s="1">
+        <f t="shared" si="10"/>
+        <v>53.592243186582799</v>
+      </c>
+      <c r="AG60" s="1">
+        <f t="shared" si="11"/>
+        <v>53.592243186582799</v>
+      </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -8952,8 +9433,16 @@
         <f t="shared" si="9"/>
         <v>613.70029999999997</v>
       </c>
+      <c r="AF61" s="1">
+        <f t="shared" si="10"/>
+        <v>54.516247379454917</v>
+      </c>
+      <c r="AG61" s="1">
+        <f t="shared" si="11"/>
+        <v>54.516247379454917</v>
+      </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>60</v>
       </c>
@@ -9044,8 +9533,16 @@
         <f t="shared" si="9"/>
         <v>634.67999999999995</v>
       </c>
+      <c r="AF62" s="1">
+        <f t="shared" si="10"/>
+        <v>55.440251572327028</v>
+      </c>
+      <c r="AG62" s="1">
+        <f t="shared" si="11"/>
+        <v>55.440251572327028</v>
+      </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>61</v>
       </c>
@@ -9136,8 +9633,16 @@
         <f t="shared" si="9"/>
         <v>656.01229999999987</v>
       </c>
+      <c r="AF63" s="1">
+        <f t="shared" si="10"/>
+        <v>56.364255765199147</v>
+      </c>
+      <c r="AG63" s="1">
+        <f t="shared" si="11"/>
+        <v>56.364255765199147</v>
+      </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>62</v>
       </c>
@@ -9228,8 +9733,16 @@
         <f t="shared" si="9"/>
         <v>677.69720000000007</v>
       </c>
+      <c r="AF64" s="1">
+        <f t="shared" si="10"/>
+        <v>57.288259958071286</v>
+      </c>
+      <c r="AG64" s="1">
+        <f t="shared" si="11"/>
+        <v>57.288259958071286</v>
+      </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>63</v>
       </c>
@@ -9320,8 +9833,16 @@
         <f t="shared" si="9"/>
         <v>699.73469999999998</v>
       </c>
+      <c r="AF65" s="1">
+        <f t="shared" si="10"/>
+        <v>58.21226415094339</v>
+      </c>
+      <c r="AG65" s="1">
+        <f t="shared" si="11"/>
+        <v>58.21226415094339</v>
+      </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>64</v>
       </c>
@@ -9412,8 +9933,16 @@
         <f t="shared" si="9"/>
         <v>722.12480000000005</v>
       </c>
+      <c r="AF66" s="1">
+        <f t="shared" si="10"/>
+        <v>59.136268343815516</v>
+      </c>
+      <c r="AG66" s="1">
+        <f t="shared" si="11"/>
+        <v>59.136268343815516</v>
+      </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>65</v>
       </c>
@@ -9504,8 +10033,16 @@
         <f t="shared" si="9"/>
         <v>744.86749999999995</v>
       </c>
+      <c r="AF67" s="1">
+        <f t="shared" si="10"/>
+        <v>60.06027253668762</v>
+      </c>
+      <c r="AG67" s="1">
+        <f t="shared" si="11"/>
+        <v>60.06027253668762</v>
+      </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -9516,11 +10053,11 @@
         <v>17.63</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" ref="D68:D110" si="10">E68/B68</f>
+        <f t="shared" ref="D68:D110" si="12">E68/B68</f>
         <v>116.35799999999999</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" ref="E68:E110" si="11">(B68)^2*C68</f>
+        <f t="shared" ref="E68:E110" si="13">(B68)^2*C68</f>
         <v>767.9627999999999</v>
       </c>
       <c r="F68" s="6"/>
@@ -9531,14 +10068,14 @@
         <v>6.6</v>
       </c>
       <c r="I68" s="7">
-        <f t="shared" ref="I68:I110" si="12">J68/H68</f>
+        <f t="shared" ref="I68:I110" si="14">J68/H68</f>
         <v>28.909090909090914</v>
       </c>
       <c r="J68" s="6">
         <v>190.8</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" ref="K68:K110" si="13">J68*H68</f>
+        <f t="shared" ref="K68:K110" si="15">J68*H68</f>
         <v>1259.28</v>
       </c>
       <c r="L68" s="6"/>
@@ -9552,11 +10089,11 @@
         <v>70.53</v>
       </c>
       <c r="P68" s="7">
-        <f t="shared" ref="P68:P110" si="14">Q68/N68</f>
+        <f t="shared" ref="P68:P110" si="16">Q68/N68</f>
         <v>465.49799999999999</v>
       </c>
       <c r="Q68" s="7">
-        <f t="shared" ref="Q68:Q110" si="15">N68^2*O68</f>
+        <f t="shared" ref="Q68:Q110" si="17">N68^2*O68</f>
         <v>3072.2867999999999</v>
       </c>
       <c r="R68" s="6"/>
@@ -9571,11 +10108,11 @@
         <v>35.26</v>
       </c>
       <c r="W68" s="7">
-        <f t="shared" ref="W68:W110" si="16">X68/U68</f>
+        <f t="shared" ref="W68:W110" si="18">X68/U68</f>
         <v>232.71599999999998</v>
       </c>
       <c r="X68" s="7">
-        <f t="shared" ref="X68:X110" si="17">U68^2*V68</f>
+        <f t="shared" ref="X68:X110" si="19">U68^2*V68</f>
         <v>1535.9255999999998</v>
       </c>
       <c r="Y68" s="6"/>
@@ -9589,15 +10126,23 @@
         <v>17.63</v>
       </c>
       <c r="AC68" s="7">
-        <f t="shared" ref="AC68:AC110" si="18">AD68/AA68</f>
+        <f t="shared" ref="AC68:AC110" si="20">AD68/AA68</f>
         <v>116.35799999999999</v>
       </c>
       <c r="AD68" s="7">
-        <f t="shared" ref="AD68:AD110" si="19">AA68^2*AB68</f>
+        <f t="shared" ref="AD68:AD110" si="21">AA68^2*AB68</f>
         <v>767.9627999999999</v>
       </c>
+      <c r="AF68" s="1">
+        <f t="shared" ref="AF68:AF110" si="22">(E68/K68)*100</f>
+        <v>60.984276729559738</v>
+      </c>
+      <c r="AG68" s="1">
+        <f t="shared" ref="AG68:AG110" si="23">(AD68/K68)*100</f>
+        <v>60.984276729559738</v>
+      </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -9608,11 +10153,11 @@
         <v>17.63</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>118.121</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>791.41070000000002</v>
       </c>
       <c r="F69" s="6"/>
@@ -9623,14 +10168,14 @@
         <v>6.7</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28.477611940298509</v>
       </c>
       <c r="J69" s="6">
         <v>190.8</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1278.3600000000001</v>
       </c>
       <c r="L69" s="6"/>
@@ -9644,11 +10189,11 @@
         <v>70.53</v>
       </c>
       <c r="P69" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>472.55099999999999</v>
       </c>
       <c r="Q69" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3166.0916999999999</v>
       </c>
       <c r="R69" s="6"/>
@@ -9663,11 +10208,11 @@
         <v>35.26</v>
       </c>
       <c r="W69" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>236.24199999999999</v>
       </c>
       <c r="X69" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1582.8214</v>
       </c>
       <c r="Y69" s="6"/>
@@ -9681,15 +10226,23 @@
         <v>17.63</v>
       </c>
       <c r="AC69" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>118.121</v>
       </c>
       <c r="AD69" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>791.41070000000002</v>
       </c>
+      <c r="AF69" s="1">
+        <f t="shared" si="22"/>
+        <v>61.908280922431857</v>
+      </c>
+      <c r="AG69" s="1">
+        <f t="shared" si="23"/>
+        <v>61.908280922431857</v>
+      </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -9700,11 +10253,11 @@
         <v>17.63</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>119.88399999999999</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>815.21119999999985</v>
       </c>
       <c r="F70" s="6"/>
@@ -9715,14 +10268,14 @@
         <v>6.8</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28.058823529411768</v>
       </c>
       <c r="J70" s="6">
         <v>190.8</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1297.44</v>
       </c>
       <c r="L70" s="6"/>
@@ -9736,11 +10289,11 @@
         <v>70.53</v>
       </c>
       <c r="P70" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>479.60399999999998</v>
       </c>
       <c r="Q70" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3261.3071999999997</v>
       </c>
       <c r="R70" s="6"/>
@@ -9755,11 +10308,11 @@
         <v>35.26</v>
       </c>
       <c r="W70" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>239.76799999999997</v>
       </c>
       <c r="X70" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1630.4223999999997</v>
       </c>
       <c r="Y70" s="6"/>
@@ -9773,15 +10326,23 @@
         <v>17.63</v>
       </c>
       <c r="AC70" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>119.88399999999999</v>
       </c>
       <c r="AD70" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>815.21119999999985</v>
       </c>
+      <c r="AF70" s="1">
+        <f t="shared" si="22"/>
+        <v>62.832285115303968</v>
+      </c>
+      <c r="AG70" s="1">
+        <f t="shared" si="23"/>
+        <v>62.832285115303968</v>
+      </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -9792,11 +10353,11 @@
         <v>17.63</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>121.64700000000001</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>839.36430000000007</v>
       </c>
       <c r="F71" s="6"/>
@@ -9807,14 +10368,14 @@
         <v>6.9</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>27.652173913043477</v>
       </c>
       <c r="J71" s="6">
         <v>190.8</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1316.5200000000002</v>
       </c>
       <c r="L71" s="6"/>
@@ -9828,11 +10389,11 @@
         <v>70.53</v>
       </c>
       <c r="P71" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>486.65700000000004</v>
       </c>
       <c r="Q71" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3357.9333000000006</v>
       </c>
       <c r="R71" s="6"/>
@@ -9847,11 +10408,11 @@
         <v>35.26</v>
       </c>
       <c r="W71" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>243.29400000000001</v>
       </c>
       <c r="X71" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1678.7286000000001</v>
       </c>
       <c r="Y71" s="6"/>
@@ -9865,15 +10426,23 @@
         <v>17.63</v>
       </c>
       <c r="AC71" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>121.64700000000001</v>
       </c>
       <c r="AD71" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>839.36430000000007</v>
       </c>
+      <c r="AF71" s="1">
+        <f t="shared" si="22"/>
+        <v>63.756289308176093</v>
+      </c>
+      <c r="AG71" s="1">
+        <f t="shared" si="23"/>
+        <v>63.756289308176093</v>
+      </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>70</v>
       </c>
@@ -9884,11 +10453,11 @@
         <v>17.63</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>123.41</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>863.87</v>
       </c>
       <c r="F72" s="6"/>
@@ -9899,14 +10468,14 @@
         <v>7</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>27.25714285714286</v>
       </c>
       <c r="J72" s="6">
         <v>190.8</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1335.6000000000001</v>
       </c>
       <c r="L72" s="6"/>
@@ -9920,11 +10489,11 @@
         <v>70.53</v>
       </c>
       <c r="P72" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>493.71000000000004</v>
       </c>
       <c r="Q72" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3455.9700000000003</v>
       </c>
       <c r="R72" s="6"/>
@@ -9939,11 +10508,11 @@
         <v>35.26</v>
       </c>
       <c r="W72" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>246.82</v>
       </c>
       <c r="X72" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1727.74</v>
       </c>
       <c r="Y72" s="6"/>
@@ -9957,15 +10526,23 @@
         <v>17.63</v>
       </c>
       <c r="AC72" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>123.41</v>
       </c>
       <c r="AD72" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>863.87</v>
       </c>
+      <c r="AF72" s="1">
+        <f t="shared" si="22"/>
+        <v>64.680293501048212</v>
+      </c>
+      <c r="AG72" s="1">
+        <f t="shared" si="23"/>
+        <v>64.680293501048212</v>
+      </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -9976,11 +10553,11 @@
         <v>17.63</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>125.17299999999999</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>888.72829999999988</v>
       </c>
       <c r="F73" s="6"/>
@@ -9991,14 +10568,14 @@
         <v>7.1</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>26.87323943661972</v>
       </c>
       <c r="J73" s="6">
         <v>190.8</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1354.68</v>
       </c>
       <c r="L73" s="6"/>
@@ -10012,11 +10589,11 @@
         <v>70.53</v>
       </c>
       <c r="P73" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>500.76299999999998</v>
       </c>
       <c r="Q73" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3555.4172999999996</v>
       </c>
       <c r="R73" s="6"/>
@@ -10031,11 +10608,11 @@
         <v>35.26</v>
       </c>
       <c r="W73" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>250.34599999999998</v>
       </c>
       <c r="X73" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1777.4565999999998</v>
       </c>
       <c r="Y73" s="6"/>
@@ -10049,15 +10626,23 @@
         <v>17.63</v>
       </c>
       <c r="AC73" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>125.17299999999999</v>
       </c>
       <c r="AD73" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>888.72829999999988</v>
       </c>
+      <c r="AF73" s="1">
+        <f t="shared" si="22"/>
+        <v>65.604297693920316</v>
+      </c>
+      <c r="AG73" s="1">
+        <f t="shared" si="23"/>
+        <v>65.604297693920316</v>
+      </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>72</v>
       </c>
@@ -10068,11 +10653,11 @@
         <v>17.63</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>126.93600000000001</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>913.93920000000003</v>
       </c>
       <c r="F74" s="6"/>
@@ -10083,14 +10668,14 @@
         <v>7.2</v>
       </c>
       <c r="I74" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>26.5</v>
       </c>
       <c r="J74" s="6">
         <v>190.8</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1373.7600000000002</v>
       </c>
       <c r="L74" s="6"/>
@@ -10104,11 +10689,11 @@
         <v>70.53</v>
       </c>
       <c r="P74" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>507.81600000000003</v>
       </c>
       <c r="Q74" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3656.2752000000005</v>
       </c>
       <c r="R74" s="6"/>
@@ -10123,11 +10708,11 @@
         <v>35.26</v>
       </c>
       <c r="W74" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>253.87200000000001</v>
       </c>
       <c r="X74" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1827.8784000000001</v>
       </c>
       <c r="Y74" s="6"/>
@@ -10141,15 +10726,23 @@
         <v>17.63</v>
       </c>
       <c r="AC74" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>126.93600000000001</v>
       </c>
       <c r="AD74" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>913.93920000000003</v>
       </c>
+      <c r="AF74" s="1">
+        <f t="shared" si="22"/>
+        <v>66.528301886792434</v>
+      </c>
+      <c r="AG74" s="1">
+        <f t="shared" si="23"/>
+        <v>66.528301886792434</v>
+      </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>73</v>
       </c>
@@ -10160,11 +10753,11 @@
         <v>17.63</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>128.69899999999998</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>939.50269999999989</v>
       </c>
       <c r="F75" s="6"/>
@@ -10175,14 +10768,14 @@
         <v>7.3</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>26.136986301369866</v>
       </c>
       <c r="J75" s="6">
         <v>190.8</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1392.8400000000001</v>
       </c>
       <c r="L75" s="6"/>
@@ -10196,11 +10789,11 @@
         <v>70.53</v>
       </c>
       <c r="P75" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>514.86900000000003</v>
       </c>
       <c r="Q75" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3758.5437000000002</v>
       </c>
       <c r="R75" s="6"/>
@@ -10215,11 +10808,11 @@
         <v>35.26</v>
       </c>
       <c r="W75" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>257.39799999999997</v>
       </c>
       <c r="X75" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1879.0053999999998</v>
       </c>
       <c r="Y75" s="6"/>
@@ -10233,15 +10826,23 @@
         <v>17.63</v>
       </c>
       <c r="AC75" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>128.69899999999998</v>
       </c>
       <c r="AD75" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>939.50269999999989</v>
       </c>
+      <c r="AF75" s="1">
+        <f t="shared" si="22"/>
+        <v>67.452306079664552</v>
+      </c>
+      <c r="AG75" s="1">
+        <f t="shared" si="23"/>
+        <v>67.452306079664552</v>
+      </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>74</v>
       </c>
@@ -10252,11 +10853,11 @@
         <v>17.63</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>130.46199999999999</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>965.41880000000003</v>
       </c>
       <c r="F76" s="6"/>
@@ -10267,14 +10868,14 @@
         <v>7.4</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>25.783783783783782</v>
       </c>
       <c r="J76" s="6">
         <v>190.8</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1411.92</v>
       </c>
       <c r="L76" s="6"/>
@@ -10288,11 +10889,11 @@
         <v>70.53</v>
       </c>
       <c r="P76" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>521.92200000000003</v>
       </c>
       <c r="Q76" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3862.2228000000005</v>
       </c>
       <c r="R76" s="6"/>
@@ -10307,11 +10908,11 @@
         <v>35.26</v>
       </c>
       <c r="W76" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>260.92399999999998</v>
       </c>
       <c r="X76" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1930.8376000000001</v>
       </c>
       <c r="Y76" s="6"/>
@@ -10325,15 +10926,23 @@
         <v>17.63</v>
       </c>
       <c r="AC76" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>130.46199999999999</v>
       </c>
       <c r="AD76" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>965.41880000000003</v>
       </c>
+      <c r="AF76" s="1">
+        <f t="shared" si="22"/>
+        <v>68.376310272536685</v>
+      </c>
+      <c r="AG76" s="1">
+        <f t="shared" si="23"/>
+        <v>68.376310272536685</v>
+      </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>75</v>
       </c>
@@ -10344,11 +10953,11 @@
         <v>17.63</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>132.22499999999999</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>991.6875</v>
       </c>
       <c r="F77" s="6"/>
@@ -10359,14 +10968,14 @@
         <v>7.5</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>25.44</v>
       </c>
       <c r="J77" s="6">
         <v>190.8</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1431</v>
       </c>
       <c r="L77" s="6"/>
@@ -10380,11 +10989,11 @@
         <v>70.53</v>
       </c>
       <c r="P77" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>528.97500000000002</v>
       </c>
       <c r="Q77" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3967.3125</v>
       </c>
       <c r="R77" s="6"/>
@@ -10399,11 +11008,11 @@
         <v>35.26</v>
       </c>
       <c r="W77" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>264.45</v>
       </c>
       <c r="X77" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1983.375</v>
       </c>
       <c r="Y77" s="6"/>
@@ -10417,15 +11026,23 @@
         <v>17.63</v>
       </c>
       <c r="AC77" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>132.22499999999999</v>
       </c>
       <c r="AD77" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>991.6875</v>
       </c>
+      <c r="AF77" s="1">
+        <f t="shared" si="22"/>
+        <v>69.300314465408803</v>
+      </c>
+      <c r="AG77" s="1">
+        <f t="shared" si="23"/>
+        <v>69.300314465408803</v>
+      </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>76</v>
       </c>
@@ -10436,11 +11053,11 @@
         <v>17.63</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>133.988</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1018.3087999999999</v>
       </c>
       <c r="F78" s="6"/>
@@ -10451,14 +11068,14 @@
         <v>7.6</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>25.10526315789474</v>
       </c>
       <c r="J78" s="6">
         <v>190.8</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1450.08</v>
       </c>
       <c r="L78" s="6"/>
@@ -10472,11 +11089,11 @@
         <v>70.53</v>
       </c>
       <c r="P78" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>536.02800000000002</v>
       </c>
       <c r="Q78" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4073.8128000000002</v>
       </c>
       <c r="R78" s="6"/>
@@ -10491,11 +11108,11 @@
         <v>35.26</v>
       </c>
       <c r="W78" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>267.976</v>
       </c>
       <c r="X78" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2036.6175999999998</v>
       </c>
       <c r="Y78" s="6"/>
@@ -10509,15 +11126,23 @@
         <v>17.63</v>
       </c>
       <c r="AC78" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>133.988</v>
       </c>
       <c r="AD78" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1018.3087999999999</v>
       </c>
+      <c r="AF78" s="1">
+        <f t="shared" si="22"/>
+        <v>70.224318658280922</v>
+      </c>
+      <c r="AG78" s="1">
+        <f t="shared" si="23"/>
+        <v>70.224318658280922</v>
+      </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>77</v>
       </c>
@@ -10528,11 +11153,11 @@
         <v>17.63</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>135.751</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1045.2827</v>
       </c>
       <c r="F79" s="6"/>
@@ -10543,14 +11168,14 @@
         <v>7.7</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24.779220779220779</v>
       </c>
       <c r="J79" s="6">
         <v>190.8</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1469.16</v>
       </c>
       <c r="L79" s="6"/>
@@ -10564,11 +11189,11 @@
         <v>70.53</v>
       </c>
       <c r="P79" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>543.08100000000002</v>
       </c>
       <c r="Q79" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4181.7237000000005</v>
       </c>
       <c r="R79" s="6"/>
@@ -10583,11 +11208,11 @@
         <v>35.26</v>
       </c>
       <c r="W79" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>271.50200000000001</v>
       </c>
       <c r="X79" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2090.5654</v>
       </c>
       <c r="Y79" s="6"/>
@@ -10601,15 +11226,23 @@
         <v>17.63</v>
       </c>
       <c r="AC79" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>135.751</v>
       </c>
       <c r="AD79" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1045.2827</v>
       </c>
+      <c r="AF79" s="1">
+        <f t="shared" si="22"/>
+        <v>71.14832285115304</v>
+      </c>
+      <c r="AG79" s="1">
+        <f t="shared" si="23"/>
+        <v>71.14832285115304</v>
+      </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>78</v>
       </c>
@@ -10620,11 +11253,11 @@
         <v>17.63</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>137.51399999999998</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1072.6091999999999</v>
       </c>
       <c r="F80" s="6"/>
@@ -10635,14 +11268,14 @@
         <v>7.8</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24.461538461538463</v>
       </c>
       <c r="J80" s="6">
         <v>190.8</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1488.24</v>
       </c>
       <c r="L80" s="6"/>
@@ -10656,11 +11289,11 @@
         <v>70.53</v>
       </c>
       <c r="P80" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>550.1339999999999</v>
       </c>
       <c r="Q80" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4291.0451999999996</v>
       </c>
       <c r="R80" s="6"/>
@@ -10675,11 +11308,11 @@
         <v>35.26</v>
       </c>
       <c r="W80" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>275.02799999999996</v>
       </c>
       <c r="X80" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2145.2183999999997</v>
       </c>
       <c r="Y80" s="6"/>
@@ -10693,15 +11326,23 @@
         <v>17.63</v>
       </c>
       <c r="AC80" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>137.51399999999998</v>
       </c>
       <c r="AD80" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1072.6091999999999</v>
       </c>
+      <c r="AF80" s="1">
+        <f t="shared" si="22"/>
+        <v>72.072327044025158</v>
+      </c>
+      <c r="AG80" s="1">
+        <f t="shared" si="23"/>
+        <v>72.072327044025158</v>
+      </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>79</v>
       </c>
@@ -10712,11 +11353,11 @@
         <v>17.63</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>139.27699999999999</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1100.2882999999999</v>
       </c>
       <c r="F81" s="6"/>
@@ -10727,14 +11368,14 @@
         <v>7.9</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24.151898734177216</v>
       </c>
       <c r="J81" s="6">
         <v>190.8</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1507.3200000000002</v>
       </c>
       <c r="L81" s="6"/>
@@ -10748,11 +11389,11 @@
         <v>70.53</v>
       </c>
       <c r="P81" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>557.18700000000001</v>
       </c>
       <c r="Q81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4401.7773000000007</v>
       </c>
       <c r="R81" s="6"/>
@@ -10767,11 +11408,11 @@
         <v>35.26</v>
       </c>
       <c r="W81" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>278.55399999999997</v>
       </c>
       <c r="X81" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2200.5765999999999</v>
       </c>
       <c r="Y81" s="6"/>
@@ -10785,15 +11426,23 @@
         <v>17.63</v>
       </c>
       <c r="AC81" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>139.27699999999999</v>
       </c>
       <c r="AD81" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1100.2882999999999</v>
       </c>
+      <c r="AF81" s="1">
+        <f t="shared" si="22"/>
+        <v>72.996331236897262</v>
+      </c>
+      <c r="AG81" s="1">
+        <f t="shared" si="23"/>
+        <v>72.996331236897262</v>
+      </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>80</v>
       </c>
@@ -10804,11 +11453,11 @@
         <v>17.63</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>141.04</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1128.32</v>
       </c>
       <c r="F82" s="6"/>
@@ -10819,14 +11468,14 @@
         <v>8</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23.85</v>
       </c>
       <c r="J82" s="6">
         <v>190.8</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1526.4</v>
       </c>
       <c r="L82" s="6"/>
@@ -10840,11 +11489,11 @@
         <v>70.53</v>
       </c>
       <c r="P82" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>564.24</v>
       </c>
       <c r="Q82" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4513.92</v>
       </c>
       <c r="R82" s="6"/>
@@ -10859,11 +11508,11 @@
         <v>35.26</v>
       </c>
       <c r="W82" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>282.08</v>
       </c>
       <c r="X82" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2256.64</v>
       </c>
       <c r="Y82" s="6"/>
@@ -10877,15 +11526,23 @@
         <v>17.63</v>
       </c>
       <c r="AC82" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>141.04</v>
       </c>
       <c r="AD82" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1128.32</v>
       </c>
+      <c r="AF82" s="1">
+        <f t="shared" si="22"/>
+        <v>73.920335429769381</v>
+      </c>
+      <c r="AG82" s="1">
+        <f t="shared" si="23"/>
+        <v>73.920335429769381</v>
+      </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>81</v>
       </c>
@@ -10896,11 +11553,11 @@
         <v>17.63</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>142.803</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1156.7042999999999</v>
       </c>
       <c r="F83" s="6"/>
@@ -10911,14 +11568,14 @@
         <v>8.1</v>
       </c>
       <c r="I83" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23.555555555555557</v>
       </c>
       <c r="J83" s="6">
         <v>190.8</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1545.48</v>
       </c>
       <c r="L83" s="6"/>
@@ -10932,11 +11589,11 @@
         <v>70.53</v>
       </c>
       <c r="P83" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>571.29300000000001</v>
       </c>
       <c r="Q83" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4627.4732999999997</v>
       </c>
       <c r="R83" s="6"/>
@@ -10951,11 +11608,11 @@
         <v>35.26</v>
       </c>
       <c r="W83" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>285.60599999999999</v>
       </c>
       <c r="X83" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2313.4085999999998</v>
       </c>
       <c r="Y83" s="6"/>
@@ -10969,15 +11626,23 @@
         <v>17.63</v>
       </c>
       <c r="AC83" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>142.803</v>
       </c>
       <c r="AD83" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1156.7042999999999</v>
       </c>
+      <c r="AF83" s="1">
+        <f t="shared" si="22"/>
+        <v>74.844339622641499</v>
+      </c>
+      <c r="AG83" s="1">
+        <f t="shared" si="23"/>
+        <v>74.844339622641499</v>
+      </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>82</v>
       </c>
@@ -10988,11 +11653,11 @@
         <v>17.63</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>144.56599999999997</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1185.4411999999998</v>
       </c>
       <c r="F84" s="6"/>
@@ -11003,14 +11668,14 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I84" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23.268292682926834</v>
       </c>
       <c r="J84" s="6">
         <v>190.8</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1564.56</v>
       </c>
       <c r="L84" s="6"/>
@@ -11024,11 +11689,11 @@
         <v>70.53</v>
       </c>
       <c r="P84" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>578.346</v>
       </c>
       <c r="Q84" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4742.4371999999994</v>
       </c>
       <c r="R84" s="6"/>
@@ -11043,11 +11708,11 @@
         <v>35.26</v>
       </c>
       <c r="W84" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>289.13199999999995</v>
       </c>
       <c r="X84" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2370.8823999999995</v>
       </c>
       <c r="Y84" s="6"/>
@@ -11061,15 +11726,23 @@
         <v>17.63</v>
       </c>
       <c r="AC84" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>144.56599999999997</v>
       </c>
       <c r="AD84" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1185.4411999999998</v>
       </c>
+      <c r="AF84" s="1">
+        <f t="shared" si="22"/>
+        <v>75.768343815513617</v>
+      </c>
+      <c r="AG84" s="1">
+        <f t="shared" si="23"/>
+        <v>75.768343815513617</v>
+      </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>83</v>
       </c>
@@ -11080,11 +11753,11 @@
         <v>17.63</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>146.32900000000001</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1214.5307000000003</v>
       </c>
       <c r="F85" s="6"/>
@@ -11095,14 +11768,14 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22.987951807228914</v>
       </c>
       <c r="J85" s="6">
         <v>190.8</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1583.6400000000003</v>
       </c>
       <c r="L85" s="6"/>
@@ -11116,11 +11789,11 @@
         <v>70.53</v>
       </c>
       <c r="P85" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>585.39900000000011</v>
       </c>
       <c r="Q85" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4858.8117000000011</v>
       </c>
       <c r="R85" s="6"/>
@@ -11135,11 +11808,11 @@
         <v>35.26</v>
       </c>
       <c r="W85" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>292.65800000000002</v>
       </c>
       <c r="X85" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2429.0614000000005</v>
       </c>
       <c r="Y85" s="6"/>
@@ -11153,15 +11826,23 @@
         <v>17.63</v>
       </c>
       <c r="AC85" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>146.32900000000001</v>
       </c>
       <c r="AD85" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1214.5307000000003</v>
       </c>
+      <c r="AF85" s="1">
+        <f t="shared" si="22"/>
+        <v>76.69234800838575</v>
+      </c>
+      <c r="AG85" s="1">
+        <f t="shared" si="23"/>
+        <v>76.69234800838575</v>
+      </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>84</v>
       </c>
@@ -11172,11 +11853,11 @@
         <v>17.63</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>148.09199999999998</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1243.9728</v>
       </c>
       <c r="F86" s="6"/>
@@ -11187,14 +11868,14 @@
         <v>8.4</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22.714285714285715</v>
       </c>
       <c r="J86" s="6">
         <v>190.8</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1602.7200000000003</v>
       </c>
       <c r="L86" s="6"/>
@@ -11208,11 +11889,11 @@
         <v>70.53</v>
       </c>
       <c r="P86" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>592.452</v>
       </c>
       <c r="Q86" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4976.5968000000003</v>
       </c>
       <c r="R86" s="6"/>
@@ -11227,11 +11908,11 @@
         <v>35.26</v>
       </c>
       <c r="W86" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>296.18399999999997</v>
       </c>
       <c r="X86" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2487.9456</v>
       </c>
       <c r="Y86" s="6"/>
@@ -11245,15 +11926,23 @@
         <v>17.63</v>
       </c>
       <c r="AC86" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>148.09199999999998</v>
       </c>
       <c r="AD86" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1243.9728</v>
       </c>
+      <c r="AF86" s="1">
+        <f t="shared" si="22"/>
+        <v>77.616352201257854</v>
+      </c>
+      <c r="AG86" s="1">
+        <f t="shared" si="23"/>
+        <v>77.616352201257854</v>
+      </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>85</v>
       </c>
@@ -11264,11 +11953,11 @@
         <v>17.63</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>149.85499999999999</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1273.7674999999999</v>
       </c>
       <c r="F87" s="6"/>
@@ -11279,14 +11968,14 @@
         <v>8.5</v>
       </c>
       <c r="I87" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22.447058823529414</v>
       </c>
       <c r="J87" s="6">
         <v>190.8</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1621.8000000000002</v>
       </c>
       <c r="L87" s="6"/>
@@ -11300,11 +11989,11 @@
         <v>70.53</v>
       </c>
       <c r="P87" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>599.50500000000011</v>
       </c>
       <c r="Q87" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5095.7925000000005</v>
       </c>
       <c r="R87" s="6"/>
@@ -11319,11 +12008,11 @@
         <v>35.26</v>
       </c>
       <c r="W87" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>299.70999999999998</v>
       </c>
       <c r="X87" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2547.5349999999999</v>
       </c>
       <c r="Y87" s="6"/>
@@ -11337,15 +12026,23 @@
         <v>17.63</v>
       </c>
       <c r="AC87" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>149.85499999999999</v>
       </c>
       <c r="AD87" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1273.7674999999999</v>
       </c>
+      <c r="AF87" s="1">
+        <f t="shared" si="22"/>
+        <v>78.540356394129958</v>
+      </c>
+      <c r="AG87" s="1">
+        <f t="shared" si="23"/>
+        <v>78.540356394129958</v>
+      </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>86</v>
       </c>
@@ -11356,11 +12053,11 @@
         <v>17.63</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>151.61799999999999</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1303.9147999999998</v>
       </c>
       <c r="F88" s="6"/>
@@ -11371,14 +12068,14 @@
         <v>8.6</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22.186046511627911</v>
       </c>
       <c r="J88" s="6">
         <v>190.8</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1640.88</v>
       </c>
       <c r="L88" s="6"/>
@@ -11392,11 +12089,11 @@
         <v>70.53</v>
       </c>
       <c r="P88" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>606.55799999999999</v>
       </c>
       <c r="Q88" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5216.3987999999999</v>
       </c>
       <c r="R88" s="6"/>
@@ -11411,11 +12108,11 @@
         <v>35.26</v>
       </c>
       <c r="W88" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>303.23599999999999</v>
       </c>
       <c r="X88" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2607.8295999999996</v>
       </c>
       <c r="Y88" s="6"/>
@@ -11429,15 +12126,23 @@
         <v>17.63</v>
       </c>
       <c r="AC88" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>151.61799999999999</v>
       </c>
       <c r="AD88" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1303.9147999999998</v>
       </c>
+      <c r="AF88" s="1">
+        <f t="shared" si="22"/>
+        <v>79.464360587002076</v>
+      </c>
+      <c r="AG88" s="1">
+        <f t="shared" si="23"/>
+        <v>79.464360587002076</v>
+      </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>87</v>
       </c>
@@ -11448,11 +12153,11 @@
         <v>17.63</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>153.38099999999997</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1334.4146999999996</v>
       </c>
       <c r="F89" s="6"/>
@@ -11463,14 +12168,14 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I89" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21.931034482758623</v>
       </c>
       <c r="J89" s="6">
         <v>190.8</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1659.96</v>
       </c>
       <c r="L89" s="6"/>
@@ -11484,11 +12189,11 @@
         <v>70.53</v>
       </c>
       <c r="P89" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>613.61099999999988</v>
       </c>
       <c r="Q89" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5338.4156999999987</v>
       </c>
       <c r="R89" s="6"/>
@@ -11503,11 +12208,11 @@
         <v>35.26</v>
       </c>
       <c r="W89" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>306.76199999999994</v>
       </c>
       <c r="X89" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2668.8293999999992</v>
       </c>
       <c r="Y89" s="6"/>
@@ -11521,15 +12226,23 @@
         <v>17.63</v>
       </c>
       <c r="AC89" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>153.38099999999997</v>
       </c>
       <c r="AD89" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1334.4146999999996</v>
       </c>
+      <c r="AF89" s="1">
+        <f t="shared" si="22"/>
+        <v>80.388364779874195</v>
+      </c>
+      <c r="AG89" s="1">
+        <f t="shared" si="23"/>
+        <v>80.388364779874195</v>
+      </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>88</v>
       </c>
@@ -11540,11 +12253,11 @@
         <v>17.63</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>155.14400000000001</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1365.2672000000002</v>
       </c>
       <c r="F90" s="6"/>
@@ -11555,14 +12268,14 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21.68181818181818</v>
       </c>
       <c r="J90" s="6">
         <v>190.8</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1679.0400000000002</v>
       </c>
       <c r="L90" s="6"/>
@@ -11576,11 +12289,11 @@
         <v>70.53</v>
       </c>
       <c r="P90" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>620.6640000000001</v>
       </c>
       <c r="Q90" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5461.8432000000012</v>
       </c>
       <c r="R90" s="6"/>
@@ -11595,11 +12308,11 @@
         <v>35.26</v>
       </c>
       <c r="W90" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>310.28800000000001</v>
       </c>
       <c r="X90" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2730.5344000000005</v>
       </c>
       <c r="Y90" s="6"/>
@@ -11613,15 +12326,23 @@
         <v>17.63</v>
       </c>
       <c r="AC90" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>155.14400000000001</v>
       </c>
       <c r="AD90" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1365.2672000000002</v>
       </c>
+      <c r="AF90" s="1">
+        <f t="shared" si="22"/>
+        <v>81.312368972746341</v>
+      </c>
+      <c r="AG90" s="1">
+        <f t="shared" si="23"/>
+        <v>81.312368972746341</v>
+      </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>89</v>
       </c>
@@ -11632,11 +12353,11 @@
         <v>17.63</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>156.90700000000001</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1396.4723000000001</v>
       </c>
       <c r="F91" s="6"/>
@@ -11647,14 +12368,14 @@
         <v>8.9</v>
       </c>
       <c r="I91" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21.438202247191011</v>
       </c>
       <c r="J91" s="6">
         <v>190.8</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1698.1200000000001</v>
       </c>
       <c r="L91" s="6"/>
@@ -11668,11 +12389,11 @@
         <v>70.53</v>
       </c>
       <c r="P91" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>627.7170000000001</v>
       </c>
       <c r="Q91" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5586.6813000000011</v>
       </c>
       <c r="R91" s="6"/>
@@ -11687,11 +12408,11 @@
         <v>35.26</v>
       </c>
       <c r="W91" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>313.81400000000002</v>
       </c>
       <c r="X91" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2792.9446000000003</v>
       </c>
       <c r="Y91" s="6"/>
@@ -11705,15 +12426,23 @@
         <v>17.63</v>
       </c>
       <c r="AC91" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>156.90700000000001</v>
       </c>
       <c r="AD91" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1396.4723000000001</v>
       </c>
+      <c r="AF91" s="1">
+        <f t="shared" si="22"/>
+        <v>82.236373165618446</v>
+      </c>
+      <c r="AG91" s="1">
+        <f t="shared" si="23"/>
+        <v>82.236373165618446</v>
+      </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>90</v>
       </c>
@@ -11724,11 +12453,11 @@
         <v>17.63</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>158.66999999999999</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1428.03</v>
       </c>
       <c r="F92" s="6"/>
@@ -11739,14 +12468,14 @@
         <v>9</v>
       </c>
       <c r="I92" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21.200000000000003</v>
       </c>
       <c r="J92" s="6">
         <v>190.8</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1717.2</v>
       </c>
       <c r="L92" s="6"/>
@@ -11760,11 +12489,11 @@
         <v>70.53</v>
       </c>
       <c r="P92" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>634.77</v>
       </c>
       <c r="Q92" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5712.93</v>
       </c>
       <c r="R92" s="6"/>
@@ -11779,11 +12508,11 @@
         <v>35.26</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>317.33999999999997</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2856.06</v>
       </c>
       <c r="Y92" s="6"/>
@@ -11797,15 +12526,23 @@
         <v>17.63</v>
       </c>
       <c r="AC92" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>158.66999999999999</v>
       </c>
       <c r="AD92" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1428.03</v>
       </c>
+      <c r="AF92" s="1">
+        <f t="shared" si="22"/>
+        <v>83.160377358490564</v>
+      </c>
+      <c r="AG92" s="1">
+        <f t="shared" si="23"/>
+        <v>83.160377358490564</v>
+      </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>91</v>
       </c>
@@ -11816,11 +12553,11 @@
         <v>17.63</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>160.43299999999999</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1459.9402999999998</v>
       </c>
       <c r="F93" s="6"/>
@@ -11831,14 +12568,14 @@
         <v>9.1</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20.967032967032971</v>
       </c>
       <c r="J93" s="6">
         <v>190.8</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1736.28</v>
       </c>
       <c r="L93" s="6"/>
@@ -11852,11 +12589,11 @@
         <v>70.53</v>
       </c>
       <c r="P93" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>641.82299999999998</v>
       </c>
       <c r="Q93" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5840.5892999999996</v>
       </c>
       <c r="R93" s="6"/>
@@ -11871,11 +12608,11 @@
         <v>35.26</v>
       </c>
       <c r="W93" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>320.86599999999999</v>
       </c>
       <c r="X93" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2919.8805999999995</v>
       </c>
       <c r="Y93" s="6"/>
@@ -11889,15 +12626,23 @@
         <v>17.63</v>
       </c>
       <c r="AC93" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>160.43299999999999</v>
       </c>
       <c r="AD93" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1459.9402999999998</v>
       </c>
+      <c r="AF93" s="1">
+        <f t="shared" si="22"/>
+        <v>84.084381551362668</v>
+      </c>
+      <c r="AG93" s="1">
+        <f t="shared" si="23"/>
+        <v>84.084381551362668</v>
+      </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>92</v>
       </c>
@@ -11908,11 +12653,11 @@
         <v>17.63</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>162.19599999999997</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1492.2031999999997</v>
       </c>
       <c r="F94" s="6"/>
@@ -11923,14 +12668,14 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20.739130434782613</v>
       </c>
       <c r="J94" s="6">
         <v>190.8</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1755.36</v>
       </c>
       <c r="L94" s="6"/>
@@ -11944,11 +12689,11 @@
         <v>70.53</v>
       </c>
       <c r="P94" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>648.87599999999998</v>
       </c>
       <c r="Q94" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5969.6591999999991</v>
       </c>
       <c r="R94" s="6"/>
@@ -11963,11 +12708,11 @@
         <v>35.26</v>
       </c>
       <c r="W94" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>324.39199999999994</v>
       </c>
       <c r="X94" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2984.4063999999994</v>
       </c>
       <c r="Y94" s="6"/>
@@ -11981,15 +12726,23 @@
         <v>17.63</v>
       </c>
       <c r="AC94" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>162.19599999999997</v>
       </c>
       <c r="AD94" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1492.2031999999997</v>
       </c>
+      <c r="AF94" s="1">
+        <f t="shared" si="22"/>
+        <v>85.008385744234801</v>
+      </c>
+      <c r="AG94" s="1">
+        <f t="shared" si="23"/>
+        <v>85.008385744234801</v>
+      </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>93</v>
       </c>
@@ -12000,11 +12753,11 @@
         <v>17.63</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>163.959</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1524.8187</v>
       </c>
       <c r="F95" s="6"/>
@@ -12015,14 +12768,14 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I95" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20.516129032258064</v>
       </c>
       <c r="J95" s="6">
         <v>190.8</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1774.4400000000003</v>
       </c>
       <c r="L95" s="6"/>
@@ -12036,11 +12789,11 @@
         <v>70.53</v>
       </c>
       <c r="P95" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>655.92899999999997</v>
       </c>
       <c r="Q95" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6100.1397000000006</v>
       </c>
       <c r="R95" s="6"/>
@@ -12055,11 +12808,11 @@
         <v>35.26</v>
       </c>
       <c r="W95" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>327.91800000000001</v>
       </c>
       <c r="X95" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3049.6374000000001</v>
       </c>
       <c r="Y95" s="6"/>
@@ -12073,15 +12826,23 @@
         <v>17.63</v>
       </c>
       <c r="AC95" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>163.959</v>
       </c>
       <c r="AD95" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1524.8187</v>
       </c>
+      <c r="AF95" s="1">
+        <f t="shared" si="22"/>
+        <v>85.932389937106905</v>
+      </c>
+      <c r="AG95" s="1">
+        <f t="shared" si="23"/>
+        <v>85.932389937106905</v>
+      </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>94</v>
       </c>
@@ -12092,11 +12853,11 @@
         <v>17.63</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>165.72200000000001</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1557.7868000000001</v>
       </c>
       <c r="F96" s="6"/>
@@ -12107,14 +12868,14 @@
         <v>9.4</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20.297872340425531</v>
       </c>
       <c r="J96" s="6">
         <v>190.8</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1793.5200000000002</v>
       </c>
       <c r="L96" s="6"/>
@@ -12128,11 +12889,11 @@
         <v>70.53</v>
       </c>
       <c r="P96" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>662.98200000000008</v>
       </c>
       <c r="Q96" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6232.0308000000014</v>
       </c>
       <c r="R96" s="6"/>
@@ -12147,11 +12908,11 @@
         <v>35.26</v>
       </c>
       <c r="W96" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>331.44400000000002</v>
       </c>
       <c r="X96" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3115.5736000000002</v>
       </c>
       <c r="Y96" s="6"/>
@@ -12165,15 +12926,23 @@
         <v>17.63</v>
       </c>
       <c r="AC96" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>165.72200000000001</v>
       </c>
       <c r="AD96" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1557.7868000000001</v>
       </c>
+      <c r="AF96" s="1">
+        <f t="shared" si="22"/>
+        <v>86.856394129979037</v>
+      </c>
+      <c r="AG96" s="1">
+        <f t="shared" si="23"/>
+        <v>86.856394129979037</v>
+      </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>95</v>
       </c>
@@ -12184,11 +12953,11 @@
         <v>17.63</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>167.48499999999999</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1591.1074999999998</v>
       </c>
       <c r="F97" s="6"/>
@@ -12199,14 +12968,14 @@
         <v>9.5</v>
       </c>
       <c r="I97" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20.08421052631579</v>
       </c>
       <c r="J97" s="6">
         <v>190.8</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1812.6000000000001</v>
       </c>
       <c r="L97" s="6"/>
@@ -12220,11 +12989,11 @@
         <v>70.53</v>
       </c>
       <c r="P97" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>670.03500000000008</v>
       </c>
       <c r="Q97" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6365.3325000000004</v>
       </c>
       <c r="R97" s="6"/>
@@ -12239,11 +13008,11 @@
         <v>35.26</v>
       </c>
       <c r="W97" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>334.96999999999997</v>
       </c>
       <c r="X97" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3182.2149999999997</v>
       </c>
       <c r="Y97" s="6"/>
@@ -12257,15 +13026,23 @@
         <v>17.63</v>
       </c>
       <c r="AC97" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>167.48499999999999</v>
       </c>
       <c r="AD97" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1591.1074999999998</v>
       </c>
+      <c r="AF97" s="1">
+        <f t="shared" si="22"/>
+        <v>87.780398322851141</v>
+      </c>
+      <c r="AG97" s="1">
+        <f t="shared" si="23"/>
+        <v>87.780398322851141</v>
+      </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>96</v>
       </c>
@@ -12276,11 +13053,11 @@
         <v>17.63</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>169.24799999999999</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1624.7807999999998</v>
       </c>
       <c r="F98" s="6"/>
@@ -12291,14 +13068,14 @@
         <v>9.6</v>
       </c>
       <c r="I98" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.875000000000004</v>
       </c>
       <c r="J98" s="6">
         <v>190.8</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1831.68</v>
       </c>
       <c r="L98" s="6"/>
@@ -12312,11 +13089,11 @@
         <v>70.53</v>
       </c>
       <c r="P98" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>677.08799999999997</v>
       </c>
       <c r="Q98" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6500.0447999999997</v>
       </c>
       <c r="R98" s="6"/>
@@ -12331,11 +13108,11 @@
         <v>35.26</v>
       </c>
       <c r="W98" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>338.49599999999998</v>
       </c>
       <c r="X98" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3249.5615999999995</v>
       </c>
       <c r="Y98" s="6"/>
@@ -12349,15 +13126,23 @@
         <v>17.63</v>
       </c>
       <c r="AC98" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>169.24799999999999</v>
       </c>
       <c r="AD98" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1624.7807999999998</v>
       </c>
+      <c r="AF98" s="1">
+        <f t="shared" si="22"/>
+        <v>88.70440251572326</v>
+      </c>
+      <c r="AG98" s="1">
+        <f t="shared" si="23"/>
+        <v>88.70440251572326</v>
+      </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>97</v>
       </c>
@@ -12368,11 +13153,11 @@
         <v>17.63</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>171.01099999999997</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1658.8066999999996</v>
       </c>
       <c r="F99" s="6"/>
@@ -12383,14 +13168,14 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I99" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.670103092783506</v>
       </c>
       <c r="J99" s="6">
         <v>190.8</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1850.76</v>
       </c>
       <c r="L99" s="6"/>
@@ -12404,11 +13189,11 @@
         <v>70.53</v>
       </c>
       <c r="P99" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>684.14099999999996</v>
       </c>
       <c r="Q99" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6636.1676999999991</v>
       </c>
       <c r="R99" s="6"/>
@@ -12423,11 +13208,11 @@
         <v>35.26</v>
       </c>
       <c r="W99" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>342.02199999999993</v>
       </c>
       <c r="X99" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3317.6133999999993</v>
       </c>
       <c r="Y99" s="6"/>
@@ -12441,15 +13226,23 @@
         <v>17.63</v>
       </c>
       <c r="AC99" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>171.01099999999997</v>
       </c>
       <c r="AD99" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1658.8066999999996</v>
       </c>
+      <c r="AF99" s="1">
+        <f t="shared" si="22"/>
+        <v>89.628406708595364</v>
+      </c>
+      <c r="AG99" s="1">
+        <f t="shared" si="23"/>
+        <v>89.628406708595364</v>
+      </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>98</v>
       </c>
@@ -12460,11 +13253,11 @@
         <v>17.63</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>172.77400000000003</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1693.1852000000003</v>
       </c>
       <c r="F100" s="6"/>
@@ -12475,14 +13268,14 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I100" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.469387755102041</v>
       </c>
       <c r="J100" s="6">
         <v>190.8</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1869.8400000000001</v>
       </c>
       <c r="L100" s="6"/>
@@ -12496,11 +13289,11 @@
         <v>70.53</v>
       </c>
       <c r="P100" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>691.19400000000007</v>
       </c>
       <c r="Q100" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6773.7012000000013</v>
       </c>
       <c r="R100" s="6"/>
@@ -12515,11 +13308,11 @@
         <v>35.26</v>
       </c>
       <c r="W100" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>345.54800000000006</v>
       </c>
       <c r="X100" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3386.3704000000007</v>
       </c>
       <c r="Y100" s="6"/>
@@ -12533,15 +13326,23 @@
         <v>17.63</v>
       </c>
       <c r="AC100" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>172.77400000000003</v>
       </c>
       <c r="AD100" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1693.1852000000003</v>
       </c>
+      <c r="AF100" s="1">
+        <f t="shared" si="22"/>
+        <v>90.55241090146751</v>
+      </c>
+      <c r="AG100" s="1">
+        <f t="shared" si="23"/>
+        <v>90.55241090146751</v>
+      </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>99</v>
       </c>
@@ -12552,11 +13353,11 @@
         <v>17.63</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>174.53700000000001</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1727.9163000000001</v>
       </c>
       <c r="F101" s="6"/>
@@ -12567,14 +13368,14 @@
         <v>9.9</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.272727272727273</v>
       </c>
       <c r="J101" s="6">
         <v>190.8</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1888.92</v>
       </c>
       <c r="L101" s="6"/>
@@ -12588,11 +13389,11 @@
         <v>70.53</v>
       </c>
       <c r="P101" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>698.24699999999996</v>
       </c>
       <c r="Q101" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6912.6453000000001</v>
       </c>
       <c r="R101" s="6"/>
@@ -12607,11 +13408,11 @@
         <v>35.26</v>
       </c>
       <c r="W101" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>349.07400000000001</v>
       </c>
       <c r="X101" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3455.8326000000002</v>
       </c>
       <c r="Y101" s="6"/>
@@ -12625,15 +13426,23 @@
         <v>17.63</v>
       </c>
       <c r="AC101" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>174.53700000000001</v>
       </c>
       <c r="AD101" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1727.9163000000001</v>
       </c>
+      <c r="AF101" s="1">
+        <f t="shared" si="22"/>
+        <v>91.476415094339629</v>
+      </c>
+      <c r="AG101" s="1">
+        <f t="shared" si="23"/>
+        <v>91.476415094339629</v>
+      </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>100</v>
       </c>
@@ -12644,11 +13453,11 @@
         <v>17.63</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>176.3</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1763</v>
       </c>
       <c r="F102" s="6"/>
@@ -12659,14 +13468,14 @@
         <v>10</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.080000000000002</v>
       </c>
       <c r="J102" s="6">
         <v>190.8</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1908</v>
       </c>
       <c r="L102" s="6"/>
@@ -12680,11 +13489,11 @@
         <v>70.53</v>
       </c>
       <c r="P102" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>705.3</v>
       </c>
       <c r="Q102" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7053</v>
       </c>
       <c r="R102" s="6"/>
@@ -12699,11 +13508,11 @@
         <v>35.26</v>
       </c>
       <c r="W102" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>352.6</v>
       </c>
       <c r="X102" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3526</v>
       </c>
       <c r="Y102" s="6"/>
@@ -12717,15 +13526,23 @@
         <v>17.63</v>
       </c>
       <c r="AC102" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>176.3</v>
       </c>
       <c r="AD102" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1763</v>
       </c>
+      <c r="AF102" s="1">
+        <f t="shared" si="22"/>
+        <v>92.400419287211747</v>
+      </c>
+      <c r="AG102" s="1">
+        <f t="shared" si="23"/>
+        <v>92.400419287211747</v>
+      </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>101</v>
       </c>
@@ -12736,11 +13553,11 @@
         <v>17.63</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>178.06299999999999</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1798.4362999999998</v>
       </c>
       <c r="F103" s="6"/>
@@ -12751,14 +13568,14 @@
         <v>10.1</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.891089108910894</v>
       </c>
       <c r="J103" s="6">
         <v>190.8</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1927.0800000000002</v>
       </c>
       <c r="L103" s="6"/>
@@ -12772,11 +13589,11 @@
         <v>70.53</v>
       </c>
       <c r="P103" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>712.35299999999995</v>
       </c>
       <c r="Q103" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7194.7652999999991</v>
       </c>
       <c r="R103" s="6"/>
@@ -12791,11 +13608,11 @@
         <v>35.26</v>
       </c>
       <c r="W103" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>356.12599999999998</v>
       </c>
       <c r="X103" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3596.8725999999997</v>
       </c>
       <c r="Y103" s="6"/>
@@ -12809,15 +13626,23 @@
         <v>17.63</v>
       </c>
       <c r="AC103" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>178.06299999999999</v>
       </c>
       <c r="AD103" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1798.4362999999998</v>
       </c>
+      <c r="AF103" s="1">
+        <f t="shared" si="22"/>
+        <v>93.324423480083837</v>
+      </c>
+      <c r="AG103" s="1">
+        <f t="shared" si="23"/>
+        <v>93.324423480083837</v>
+      </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>102</v>
       </c>
@@ -12828,11 +13653,11 @@
         <v>17.63</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>179.82599999999999</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1834.2251999999999</v>
       </c>
       <c r="F104" s="6"/>
@@ -12843,14 +13668,14 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I104" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.705882352941178</v>
       </c>
       <c r="J104" s="6">
         <v>190.8</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1946.16</v>
       </c>
       <c r="L104" s="6"/>
@@ -12864,11 +13689,11 @@
         <v>70.53</v>
       </c>
       <c r="P104" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>719.40599999999995</v>
       </c>
       <c r="Q104" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7337.9411999999993</v>
       </c>
       <c r="R104" s="6"/>
@@ -12883,11 +13708,11 @@
         <v>35.26</v>
       </c>
       <c r="W104" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>359.65199999999999</v>
       </c>
       <c r="X104" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3668.4503999999997</v>
       </c>
       <c r="Y104" s="6"/>
@@ -12901,15 +13726,23 @@
         <v>17.63</v>
       </c>
       <c r="AC104" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>179.82599999999999</v>
       </c>
       <c r="AD104" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1834.2251999999999</v>
       </c>
+      <c r="AF104" s="1">
+        <f t="shared" si="22"/>
+        <v>94.248427672955955</v>
+      </c>
+      <c r="AG104" s="1">
+        <f t="shared" si="23"/>
+        <v>94.248427672955955</v>
+      </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>103</v>
       </c>
@@ -12920,11 +13753,11 @@
         <v>17.63</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>181.58900000000003</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1870.3667000000003</v>
       </c>
       <c r="F105" s="6"/>
@@ -12935,14 +13768,14 @@
         <v>10.3</v>
       </c>
       <c r="I105" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.524271844660195</v>
       </c>
       <c r="J105" s="6">
         <v>190.8</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1965.2400000000002</v>
       </c>
       <c r="L105" s="6"/>
@@ -12956,11 +13789,11 @@
         <v>70.53</v>
       </c>
       <c r="P105" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>726.45900000000006</v>
       </c>
       <c r="Q105" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7482.5277000000015</v>
       </c>
       <c r="R105" s="6"/>
@@ -12975,11 +13808,11 @@
         <v>35.26</v>
       </c>
       <c r="W105" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>363.17800000000005</v>
       </c>
       <c r="X105" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3740.7334000000005</v>
       </c>
       <c r="Y105" s="6"/>
@@ -12993,15 +13826,23 @@
         <v>17.63</v>
       </c>
       <c r="AC105" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>181.58900000000003</v>
       </c>
       <c r="AD105" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1870.3667000000003</v>
       </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="22"/>
+        <v>95.172431865828088</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="23"/>
+        <v>95.172431865828088</v>
+      </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>104</v>
       </c>
@@ -13012,11 +13853,11 @@
         <v>17.63</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>183.352</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1906.8608000000002</v>
       </c>
       <c r="F106" s="6"/>
@@ -13027,14 +13868,14 @@
         <v>10.4</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.346153846153847</v>
       </c>
       <c r="J106" s="6">
         <v>190.8</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1984.3200000000002</v>
       </c>
       <c r="L106" s="6"/>
@@ -13048,11 +13889,11 @@
         <v>70.53</v>
       </c>
       <c r="P106" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>733.51200000000006</v>
       </c>
       <c r="Q106" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7628.5248000000011</v>
       </c>
       <c r="R106" s="6"/>
@@ -13067,11 +13908,11 @@
         <v>35.26</v>
       </c>
       <c r="W106" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>366.70400000000001</v>
       </c>
       <c r="X106" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3813.7216000000003</v>
       </c>
       <c r="Y106" s="6"/>
@@ -13085,15 +13926,23 @@
         <v>17.63</v>
       </c>
       <c r="AC106" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>183.352</v>
       </c>
       <c r="AD106" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1906.8608000000002</v>
       </c>
+      <c r="AF106" s="1">
+        <f t="shared" si="22"/>
+        <v>96.096436058700206</v>
+      </c>
+      <c r="AG106" s="1">
+        <f t="shared" si="23"/>
+        <v>96.096436058700206</v>
+      </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>105</v>
       </c>
@@ -13104,11 +13953,11 @@
         <v>17.63</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>185.11500000000001</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1943.7075</v>
       </c>
       <c r="F107" s="6"/>
@@ -13119,14 +13968,14 @@
         <v>10.5</v>
       </c>
       <c r="I107" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.171428571428571</v>
       </c>
       <c r="J107" s="6">
         <v>190.8</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2003.4</v>
       </c>
       <c r="L107" s="6"/>
@@ -13140,11 +13989,11 @@
         <v>70.53</v>
       </c>
       <c r="P107" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>740.56499999999994</v>
       </c>
       <c r="Q107" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7775.9324999999999</v>
       </c>
       <c r="R107" s="6"/>
@@ -13159,11 +14008,11 @@
         <v>35.26</v>
       </c>
       <c r="W107" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>370.23</v>
       </c>
       <c r="X107" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3887.415</v>
       </c>
       <c r="Y107" s="6"/>
@@ -13177,15 +14026,23 @@
         <v>17.63</v>
       </c>
       <c r="AC107" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>185.11500000000001</v>
       </c>
       <c r="AD107" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1943.7075</v>
       </c>
+      <c r="AF107" s="1">
+        <f t="shared" si="22"/>
+        <v>97.020440251572325</v>
+      </c>
+      <c r="AG107" s="1">
+        <f t="shared" si="23"/>
+        <v>97.020440251572325</v>
+      </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>106</v>
       </c>
@@ -13196,11 +14053,11 @@
         <v>17.63</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>186.87800000000001</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1980.9068</v>
       </c>
       <c r="F108" s="6"/>
@@ -13211,14 +14068,14 @@
         <v>10.6</v>
       </c>
       <c r="I108" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="J108" s="6">
         <v>190.8</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2022.48</v>
       </c>
       <c r="L108" s="6"/>
@@ -13232,11 +14089,11 @@
         <v>70.53</v>
       </c>
       <c r="P108" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>747.61800000000005</v>
       </c>
       <c r="Q108" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7924.7507999999998</v>
       </c>
       <c r="R108" s="6"/>
@@ -13251,11 +14108,11 @@
         <v>35.26</v>
       </c>
       <c r="W108" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>373.75600000000003</v>
       </c>
       <c r="X108" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3961.8136</v>
       </c>
       <c r="Y108" s="6"/>
@@ -13269,15 +14126,23 @@
         <v>17.63</v>
       </c>
       <c r="AC108" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>186.87800000000001</v>
       </c>
       <c r="AD108" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1980.9068</v>
       </c>
+      <c r="AF108" s="1">
+        <f t="shared" si="22"/>
+        <v>97.944444444444443</v>
+      </c>
+      <c r="AG108" s="1">
+        <f t="shared" si="23"/>
+        <v>97.944444444444443</v>
+      </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>107</v>
       </c>
@@ -13288,11 +14153,11 @@
         <v>17.63</v>
       </c>
       <c r="D109" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>188.64099999999996</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2018.4586999999995</v>
       </c>
       <c r="F109" s="6"/>
@@ -13303,14 +14168,14 @@
         <v>10.7</v>
       </c>
       <c r="I109" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.831775700934582</v>
       </c>
       <c r="J109" s="6">
         <v>190.8</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2041.56</v>
       </c>
       <c r="L109" s="6"/>
@@ -13324,11 +14189,11 @@
         <v>70.53</v>
       </c>
       <c r="P109" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>754.67099999999994</v>
       </c>
       <c r="Q109" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8074.979699999999</v>
       </c>
       <c r="R109" s="6"/>
@@ -13343,11 +14208,11 @@
         <v>35.26</v>
       </c>
       <c r="W109" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>377.28199999999993</v>
       </c>
       <c r="X109" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4036.9173999999989</v>
       </c>
       <c r="Y109" s="6"/>
@@ -13361,15 +14226,23 @@
         <v>17.63</v>
       </c>
       <c r="AC109" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>188.64099999999996</v>
       </c>
       <c r="AD109" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2018.4586999999995</v>
       </c>
+      <c r="AF109" s="1">
+        <f t="shared" si="22"/>
+        <v>98.868448637316547</v>
+      </c>
+      <c r="AG109" s="1">
+        <f t="shared" si="23"/>
+        <v>98.868448637316547</v>
+      </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>108</v>
       </c>
@@ -13380,11 +14253,11 @@
         <v>17.63</v>
       </c>
       <c r="D110" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>190.404</v>
       </c>
       <c r="E110" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2056.3632000000002</v>
       </c>
       <c r="F110" s="6"/>
@@ -13395,14 +14268,14 @@
         <v>10.8</v>
       </c>
       <c r="I110" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.666666666666668</v>
       </c>
       <c r="J110" s="6">
         <v>190.8</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2060.6400000000003</v>
       </c>
       <c r="L110" s="6"/>
@@ -13416,11 +14289,11 @@
         <v>70.53</v>
       </c>
       <c r="P110" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>761.72400000000005</v>
       </c>
       <c r="Q110" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8226.619200000001</v>
       </c>
       <c r="R110" s="6"/>
@@ -13435,11 +14308,11 @@
         <v>35.26</v>
       </c>
       <c r="W110" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>380.80799999999999</v>
       </c>
       <c r="X110" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4112.7264000000005</v>
       </c>
       <c r="Y110" s="6"/>
@@ -13453,17 +14326,43 @@
         <v>17.63</v>
       </c>
       <c r="AC110" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>190.404</v>
       </c>
       <c r="AD110" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2056.3632000000002</v>
+      </c>
+      <c r="AF110" s="1">
+        <f t="shared" si="22"/>
+        <v>99.792452830188665</v>
+      </c>
+      <c r="AG110" s="1">
+        <f t="shared" si="23"/>
+        <v>99.792452830188665</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF112" s="1">
+        <f>AVERAGEA(AF3:AF110)</f>
+        <v>69.533149895178184</v>
+      </c>
+      <c r="AG112" s="1">
+        <f>AVERAGEA(AG3:AG110)</f>
+        <v>50.358228511530392</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13654,18 +14553,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13688,6 +14587,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C192F64D-7ECE-4521-993E-5E25853B3815}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A570645-99A3-4C0F-AA19-1EEC7A6ACC97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -13702,12 +14609,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C192F64D-7ECE-4521-993E-5E25853B3815}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Grzałkologia stosowana.xlsx
+++ b/Grzałkologia stosowana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dom\Desktop\Git\PVtesty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F294ACD-BD9A-48D5-83B0-86C41C774C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7198088-3D7F-4486-AB25-9BFDBABF77DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A525B563-1C57-4D4E-89FF-D19E607E9193}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>I</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>sprawność 17,63 ohm</t>
+  </si>
+  <si>
+    <t>P najw</t>
+  </si>
+  <si>
+    <t>spraw najwyższa</t>
+  </si>
+  <si>
+    <t>sprawność średnia</t>
   </si>
 </sst>
 </file>
@@ -2548,7 +2557,1366 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$AJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P najw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$AJ$3:$AJ$110</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>0.70530000000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8212000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3476999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.284800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.6325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.390799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.559699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.13920000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.129300000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.341300000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101.56319999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.19570000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>138.2388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158.6925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>180.55680000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>203.83169999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>228.51720000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>254.61330000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>282.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>311.03730000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>341.36520000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>373.10369999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>406.25279999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440.8125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>476.78280000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>514.16370000000006</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>514.16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>536.30459999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>564.16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>592.72059999999988</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>621.9864</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>651.95739999999989</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>682.63360000000011</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>714.01499999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>746.10159999999985</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>778.89340000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>812.39039999999989</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>846.59260000000017</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>881.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>917.11259999999993</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>953.43040000000008</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>990.45339999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1028.1816000000001</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>1028.18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1045.2827</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1072.6091999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1100.2882999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1128.32</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1156.7042999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1185.4411999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1214.5307000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1243.9728</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1273.7674999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1303.9147999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1334.4146999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1365.2672000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1396.4723000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1428.03</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1459.9402999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1492.2031999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1524.8187</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1557.7868000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1591.1074999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1624.7807999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1658.8066999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1693.1852000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1727.9163000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1798.4362999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1834.2251999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1870.3667000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1906.8608000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1943.7075</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1980.9068</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2018.4586999999995</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2056.3632000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1357-4CB4-AB39-595C4EF4C60B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P idealne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$K$3:$K$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>19.080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>152.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>171.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>209.88000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>228.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>248.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>267.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>286.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>305.28000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>324.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>343.44000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>362.52</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>381.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400.68000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>419.76000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>438.84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>457.92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>496.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>515.16000000000008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>534.24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>553.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>572.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>591.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>610.56000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>629.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>648.72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>667.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>686.88000000000011</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>705.96</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>725.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>744.12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>763.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>782.28</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>801.36000000000013</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>820.44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>839.5200000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>858.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>877.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>896.7600000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>915.84</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>934.92000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>973.08</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>992.16000000000008</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1011.24</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1030.3200000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1049.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1068.48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1087.5600000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1106.6400000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1125.72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1144.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1163.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1182.96</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1202.04</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1221.1200000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1240.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1259.28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1278.3600000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1297.44</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1316.5200000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1335.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1354.68</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1373.7600000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1392.8400000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1411.92</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1450.08</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1469.16</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1488.24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1507.3200000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1526.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1545.48</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1564.56</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1583.6400000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1602.7200000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1621.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1640.88</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1659.96</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1679.0400000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1698.1200000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1717.2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1736.28</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1755.36</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1774.4400000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1793.5200000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1812.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1831.68</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1850.76</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1869.8400000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1888.92</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1927.0800000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1946.16</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1965.2400000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1984.3200000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2003.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2022.48</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2041.56</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2060.6400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1357-4CB4-AB39-595C4EF4C60B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P przełaczane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$3:$E$110</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>0.70530000000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8212000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3476999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.284800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.6325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.390799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.559699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.13920000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.129300000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.341300000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101.56319999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119.19570000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>138.2388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158.6925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>180.55680000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>203.83169999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>228.51720000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>254.61330000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>282.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>311.03730000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>341.36520000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>373.10369999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>406.25279999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440.8125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>476.78280000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>514.16370000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>276.43839999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>296.53659999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>317.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>338.84860000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>361.06240000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>383.98139999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>407.60559999999992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>431.935</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>456.96960000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>482.70940000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>509.15439999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>536.30459999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>564.16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>592.72059999999988</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>621.9864</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>651.95739999999989</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>682.63360000000011</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>714.01499999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>746.10159999999985</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>778.89340000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>812.39039999999989</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>846.59260000000017</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>881.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>917.11259999999993</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>953.43040000000008</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>990.45339999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1028.1816000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>533.3075</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>552.87679999999989</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>572.79870000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>593.07319999999993</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>613.70029999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>634.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>656.01229999999987</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>677.69720000000007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>699.73469999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>722.12480000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>744.86749999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>767.9627999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>791.41070000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>815.21119999999985</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>839.36430000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>863.87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>888.72829999999988</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>913.93920000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>939.50269999999989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>965.41880000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>991.6875</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1018.3087999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1045.2827</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1072.6091999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1100.2882999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1128.32</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1156.7042999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1185.4411999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1214.5307000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1243.9728</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1273.7674999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1303.9147999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1334.4146999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1365.2672000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1396.4723000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1428.03</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1459.9402999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1492.2031999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1524.8187</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1557.7868000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1591.1074999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1624.7807999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1658.8066999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1693.1852000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1727.9163000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1798.4362999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1834.2251999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1870.3667000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1906.8608000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1943.7075</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1980.9068</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2018.4586999999995</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2056.3632000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1357-4CB4-AB39-595C4EF4C60B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1014025583"/>
+        <c:axId val="1014014767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1014025583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1014014767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1014014767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1014025583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3104,20 +4472,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>537801</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>20329</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>560213</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3137,6 +5021,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>72837</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>79562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>409014</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>155762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679E383F-F6E9-DBF2-A3C4-1BCB26196D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3442,10 +5362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99430B4-5948-49EF-B3C2-E9E8425ECD74}">
-  <dimension ref="A2:AG112"/>
+  <dimension ref="A2:AK112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG113" sqref="AG113"/>
+    <sheetView tabSelected="1" topLeftCell="AH86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW111" sqref="AW111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,9 +5377,10 @@
     <col min="29" max="30" width="9.140625" style="1"/>
     <col min="32" max="32" width="21.28515625" style="1" customWidth="1"/>
     <col min="33" max="33" width="23.42578125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3541,8 +5462,17 @@
       <c r="AG2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="AI2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3641,8 +5571,19 @@
         <f>(AD3/K3)*100</f>
         <v>0.92400419287211744</v>
       </c>
+      <c r="AI3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AJ3" s="3">
+        <f>(AI3)^2*C3</f>
+        <v>0.70530000000000015</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>(AJ3/K3)*100</f>
+        <v>3.6965408805031448</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3741,8 +5682,19 @@
         <f t="shared" ref="AG4:AG67" si="11">(AD4/K4)*100</f>
         <v>1.8480083857442349</v>
       </c>
+      <c r="AI4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AJ4" s="3">
+        <f t="shared" ref="AJ4:AJ29" si="12">(AI4)^2*C4</f>
+        <v>2.8212000000000006</v>
+      </c>
+      <c r="AK4" s="1">
+        <f t="shared" ref="AK4:AK67" si="13">(AJ4/K4)*100</f>
+        <v>7.3930817610062896</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3841,8 +5793,19 @@
         <f t="shared" si="11"/>
         <v>2.7720125786163519</v>
       </c>
+      <c r="AI5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AJ5" s="3">
+        <f t="shared" si="12"/>
+        <v>6.3476999999999997</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="13"/>
+        <v>11.089622641509433</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3941,8 +5904,19 @@
         <f t="shared" si="11"/>
         <v>3.6960167714884697</v>
       </c>
+      <c r="AI6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="12"/>
+        <v>11.284800000000002</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="13"/>
+        <v>14.786163522012579</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4041,8 +6015,19 @@
         <f t="shared" si="11"/>
         <v>4.6200209643605863</v>
       </c>
+      <c r="AI7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" si="12"/>
+        <v>17.6325</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="13"/>
+        <v>18.482704402515722</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4141,8 +6126,19 @@
         <f t="shared" si="11"/>
         <v>5.5440251572327037</v>
       </c>
+      <c r="AI8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="12"/>
+        <v>25.390799999999999</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="13"/>
+        <v>22.179245283018865</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4241,8 +6237,19 @@
         <f t="shared" si="11"/>
         <v>6.4680293501048203</v>
       </c>
+      <c r="AI9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="12"/>
+        <v>34.559699999999999</v>
+      </c>
+      <c r="AK9" s="1">
+        <f t="shared" si="13"/>
+        <v>25.875786163522012</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4341,8 +6348,19 @@
         <f t="shared" si="11"/>
         <v>7.3920335429769395</v>
       </c>
+      <c r="AI10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="12"/>
+        <v>45.13920000000001</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="13"/>
+        <v>29.572327044025158</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4441,8 +6459,19 @@
         <f t="shared" si="11"/>
         <v>8.3160377358490543</v>
       </c>
+      <c r="AI11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="12"/>
+        <v>57.129300000000008</v>
+      </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="13"/>
+        <v>33.268867924528301</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4541,8 +6570,19 @@
         <f t="shared" si="11"/>
         <v>9.2400419287211726</v>
       </c>
+      <c r="AI12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="12"/>
+        <v>70.53</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="13"/>
+        <v>36.965408805031444</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4641,8 +6681,19 @@
         <f t="shared" si="11"/>
         <v>10.164046121593293</v>
       </c>
+      <c r="AI13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" si="12"/>
+        <v>85.341300000000018</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="13"/>
+        <v>40.661949685534594</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4741,8 +6792,19 @@
         <f t="shared" si="11"/>
         <v>11.088050314465407</v>
       </c>
+      <c r="AI14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="12"/>
+        <v>101.56319999999999</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="13"/>
+        <v>44.35849056603773</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4841,8 +6903,19 @@
         <f t="shared" si="11"/>
         <v>12.012054507337526</v>
       </c>
+      <c r="AI15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="12"/>
+        <v>119.19570000000002</v>
+      </c>
+      <c r="AK15" s="1">
+        <f t="shared" si="13"/>
+        <v>48.055031446540887</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4941,8 +7014,19 @@
         <f t="shared" si="11"/>
         <v>12.936058700209641</v>
       </c>
+      <c r="AI16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="12"/>
+        <v>138.2388</v>
+      </c>
+      <c r="AK16" s="1">
+        <f t="shared" si="13"/>
+        <v>51.751572327044023</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5041,8 +7125,19 @@
         <f t="shared" si="11"/>
         <v>13.860062893081757</v>
       </c>
+      <c r="AI17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="12"/>
+        <v>158.6925</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="13"/>
+        <v>55.448113207547159</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5141,8 +7236,19 @@
         <f t="shared" si="11"/>
         <v>14.784067085953879</v>
       </c>
+      <c r="AI18" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="12"/>
+        <v>180.55680000000004</v>
+      </c>
+      <c r="AK18" s="1">
+        <f t="shared" si="13"/>
+        <v>59.144654088050316</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5241,8 +7347,19 @@
         <f t="shared" si="11"/>
         <v>15.708071278825992</v>
       </c>
+      <c r="AI19" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f t="shared" si="12"/>
+        <v>203.83169999999998</v>
+      </c>
+      <c r="AK19" s="1">
+        <f t="shared" si="13"/>
+        <v>62.841194968553452</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5341,8 +7458,19 @@
         <f t="shared" si="11"/>
         <v>16.632075471698109</v>
       </c>
+      <c r="AI20" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f t="shared" si="12"/>
+        <v>228.51720000000003</v>
+      </c>
+      <c r="AK20" s="1">
+        <f t="shared" si="13"/>
+        <v>66.537735849056602</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5441,8 +7569,19 @@
         <f t="shared" si="11"/>
         <v>17.55607966457023</v>
       </c>
+      <c r="AI21" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f t="shared" si="12"/>
+        <v>254.61330000000001</v>
+      </c>
+      <c r="AK21" s="1">
+        <f t="shared" si="13"/>
+        <v>70.234276729559753</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5541,8 +7680,19 @@
         <f t="shared" si="11"/>
         <v>18.480083857442345</v>
       </c>
+      <c r="AI22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" si="12"/>
+        <v>282.12</v>
+      </c>
+      <c r="AK22" s="1">
+        <f t="shared" si="13"/>
+        <v>73.930817610062888</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5641,8 +7791,19 @@
         <f t="shared" si="11"/>
         <v>19.404088050314463</v>
       </c>
+      <c r="AI23" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="12"/>
+        <v>311.03730000000002</v>
+      </c>
+      <c r="AK23" s="1">
+        <f t="shared" si="13"/>
+        <v>77.627358490566039</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5741,8 +7902,19 @@
         <f t="shared" si="11"/>
         <v>20.328092243186585</v>
       </c>
+      <c r="AI24" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="12"/>
+        <v>341.36520000000007</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="13"/>
+        <v>81.323899371069189</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5841,8 +8013,19 @@
         <f t="shared" si="11"/>
         <v>21.2520964360587</v>
       </c>
+      <c r="AI25" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f t="shared" si="12"/>
+        <v>373.10369999999995</v>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="13"/>
+        <v>85.02044025157231</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5941,8 +8124,19 @@
         <f t="shared" si="11"/>
         <v>22.176100628930815</v>
       </c>
+      <c r="AI26" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="AJ26" s="3">
+        <f t="shared" si="12"/>
+        <v>406.25279999999998</v>
+      </c>
+      <c r="AK26" s="1">
+        <f t="shared" si="13"/>
+        <v>88.71698113207546</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -6041,8 +8235,19 @@
         <f t="shared" si="11"/>
         <v>23.100104821802937</v>
       </c>
+      <c r="AI27" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f t="shared" si="12"/>
+        <v>440.8125</v>
+      </c>
+      <c r="AK27" s="1">
+        <f t="shared" si="13"/>
+        <v>92.413522012578625</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -6141,8 +8346,19 @@
         <f t="shared" si="11"/>
         <v>24.024109014675052</v>
       </c>
+      <c r="AI28" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f t="shared" si="12"/>
+        <v>476.78280000000007</v>
+      </c>
+      <c r="AK28" s="1">
+        <f t="shared" si="13"/>
+        <v>96.110062893081775</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -6241,8 +8457,19 @@
         <f t="shared" si="11"/>
         <v>24.948113207547166</v>
       </c>
+      <c r="AI29" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f t="shared" si="12"/>
+        <v>514.16370000000006</v>
+      </c>
+      <c r="AK29" s="1">
+        <f t="shared" si="13"/>
+        <v>99.806603773584897</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -6341,8 +8568,18 @@
         <f t="shared" si="11"/>
         <v>25.872117400419281</v>
       </c>
+      <c r="AI30" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="AJ30">
+        <v>514.16</v>
+      </c>
+      <c r="AK30" s="1">
+        <f t="shared" si="13"/>
+        <v>96.241389637616052</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -6441,8 +8678,18 @@
         <f t="shared" si="11"/>
         <v>26.796121593291399</v>
       </c>
+      <c r="AI31" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="AJ31">
+        <v>514.16</v>
+      </c>
+      <c r="AK31" s="1">
+        <f t="shared" si="13"/>
+        <v>92.922721029422377</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6541,8 +8788,18 @@
         <f t="shared" si="11"/>
         <v>27.720125786163514</v>
       </c>
+      <c r="AI32" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ32">
+        <v>514.16</v>
+      </c>
+      <c r="AK32" s="1">
+        <f t="shared" si="13"/>
+        <v>89.825296995108289</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -6641,8 +8898,18 @@
         <f t="shared" si="11"/>
         <v>28.644129979035643</v>
       </c>
+      <c r="AI33" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="AJ33">
+        <v>514.16</v>
+      </c>
+      <c r="AK33" s="1">
+        <f t="shared" si="13"/>
+        <v>86.927706769459661</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -6741,8 +9008,18 @@
         <f t="shared" si="11"/>
         <v>29.568134171907758</v>
       </c>
+      <c r="AI34" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="AJ34">
+        <v>514.16</v>
+      </c>
+      <c r="AK34" s="1">
+        <f t="shared" si="13"/>
+        <v>84.21121593291403</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -6841,8 +9118,18 @@
         <f t="shared" si="11"/>
         <v>30.492138364779869</v>
       </c>
+      <c r="AI35" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="AJ35">
+        <v>514.16</v>
+      </c>
+      <c r="AK35" s="1">
+        <f t="shared" si="13"/>
+        <v>81.659360904643918</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -6941,8 +9228,18 @@
         <f t="shared" si="11"/>
         <v>31.416142557651984</v>
       </c>
+      <c r="AI36" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="AJ36">
+        <v>514.16</v>
+      </c>
+      <c r="AK36" s="1">
+        <f t="shared" si="13"/>
+        <v>79.257614995683795</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -7041,8 +9338,18 @@
         <f t="shared" si="11"/>
         <v>32.340146750524106</v>
       </c>
+      <c r="AI37" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="AJ37">
+        <v>514.16</v>
+      </c>
+      <c r="AK37" s="1">
+        <f t="shared" si="13"/>
+        <v>76.993111710092833</v>
+      </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -7141,8 +9448,18 @@
         <f t="shared" si="11"/>
         <v>33.264150943396217</v>
       </c>
+      <c r="AI38" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AJ38">
+        <v>514.16</v>
+      </c>
+      <c r="AK38" s="1">
+        <f t="shared" si="13"/>
+        <v>74.854414162590245</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -7241,8 +9558,18 @@
         <f t="shared" si="11"/>
         <v>34.188155136268342</v>
       </c>
+      <c r="AI39" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="AJ39">
+        <v>514.16</v>
+      </c>
+      <c r="AK39" s="1">
+        <f t="shared" si="13"/>
+        <v>72.831321887925654</v>
+      </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -7341,8 +9668,18 @@
         <f t="shared" si="11"/>
         <v>35.112159329140461</v>
       </c>
+      <c r="AI40" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="AJ40">
+        <v>514.16</v>
+      </c>
+      <c r="AK40" s="1">
+        <f t="shared" si="13"/>
+        <v>70.91470815403288</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -7441,8 +9778,19 @@
         <f t="shared" si="11"/>
         <v>36.036163522012579</v>
       </c>
+      <c r="AI41" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AJ41" s="5">
+        <f>(AI41)^2*C41</f>
+        <v>536.30459999999994</v>
+      </c>
+      <c r="AK41" s="1">
+        <f t="shared" si="13"/>
+        <v>72.072327044025158</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -7541,8 +9889,19 @@
         <f t="shared" si="11"/>
         <v>36.96016771488469</v>
       </c>
+      <c r="AI42" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ42" s="5">
+        <f t="shared" ref="AJ42:AJ56" si="14">(AI42)^2*C42</f>
+        <v>564.16</v>
+      </c>
+      <c r="AK42" s="1">
+        <f t="shared" si="13"/>
+        <v>73.920335429769381</v>
+      </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -7641,8 +10000,19 @@
         <f t="shared" si="11"/>
         <v>37.884171907756809</v>
       </c>
+      <c r="AI43" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AJ43" s="5">
+        <f t="shared" si="14"/>
+        <v>592.72059999999988</v>
+      </c>
+      <c r="AK43" s="1">
+        <f t="shared" si="13"/>
+        <v>75.768343815513617</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -7741,8 +10111,19 @@
         <f t="shared" si="11"/>
         <v>38.808176100628927</v>
       </c>
+      <c r="AI44" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="AJ44" s="5">
+        <f t="shared" si="14"/>
+        <v>621.9864</v>
+      </c>
+      <c r="AK44" s="1">
+        <f t="shared" si="13"/>
+        <v>77.616352201257854</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -7841,8 +10222,19 @@
         <f t="shared" si="11"/>
         <v>39.732180293501038</v>
       </c>
+      <c r="AI45" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="AJ45" s="5">
+        <f t="shared" si="14"/>
+        <v>651.95739999999989</v>
+      </c>
+      <c r="AK45" s="1">
+        <f t="shared" si="13"/>
+        <v>79.464360587002076</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -7941,8 +10333,19 @@
         <f t="shared" si="11"/>
         <v>40.656184486373171</v>
       </c>
+      <c r="AI46" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AJ46" s="5">
+        <f t="shared" si="14"/>
+        <v>682.63360000000011</v>
+      </c>
+      <c r="AK46" s="1">
+        <f t="shared" si="13"/>
+        <v>81.312368972746341</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -8041,8 +10444,19 @@
         <f t="shared" si="11"/>
         <v>41.580188679245282</v>
       </c>
+      <c r="AI47" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="AJ47" s="5">
+        <f t="shared" si="14"/>
+        <v>714.01499999999999</v>
+      </c>
+      <c r="AK47" s="1">
+        <f t="shared" si="13"/>
+        <v>83.160377358490564</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -8141,8 +10555,19 @@
         <f t="shared" si="11"/>
         <v>42.5041928721174</v>
       </c>
+      <c r="AI48" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AJ48" s="5">
+        <f t="shared" si="14"/>
+        <v>746.10159999999985</v>
+      </c>
+      <c r="AK48" s="1">
+        <f t="shared" si="13"/>
+        <v>85.008385744234801</v>
+      </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -8241,8 +10666,19 @@
         <f t="shared" si="11"/>
         <v>43.428197064989519</v>
       </c>
+      <c r="AI49" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="AJ49" s="5">
+        <f t="shared" si="14"/>
+        <v>778.89340000000004</v>
+      </c>
+      <c r="AK49" s="1">
+        <f t="shared" si="13"/>
+        <v>86.856394129979037</v>
+      </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -8341,8 +10777,19 @@
         <f t="shared" si="11"/>
         <v>44.35220125786163</v>
       </c>
+      <c r="AI50" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="AJ50" s="5">
+        <f t="shared" si="14"/>
+        <v>812.39039999999989</v>
+      </c>
+      <c r="AK50" s="1">
+        <f t="shared" si="13"/>
+        <v>88.70440251572326</v>
+      </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -8441,8 +10888,19 @@
         <f t="shared" si="11"/>
         <v>45.276205450733755</v>
       </c>
+      <c r="AI51" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AJ51" s="5">
+        <f t="shared" si="14"/>
+        <v>846.59260000000017</v>
+      </c>
+      <c r="AK51" s="1">
+        <f t="shared" si="13"/>
+        <v>90.55241090146751</v>
+      </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -8541,8 +10999,19 @@
         <f t="shared" si="11"/>
         <v>46.200209643605874</v>
       </c>
+      <c r="AI52" s="4">
+        <v>5</v>
+      </c>
+      <c r="AJ52" s="5">
+        <f t="shared" si="14"/>
+        <v>881.5</v>
+      </c>
+      <c r="AK52" s="1">
+        <f t="shared" si="13"/>
+        <v>92.400419287211747</v>
+      </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -8641,8 +11110,19 @@
         <f t="shared" si="11"/>
         <v>47.124213836477978</v>
       </c>
+      <c r="AI53" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AJ53" s="5">
+        <f t="shared" si="14"/>
+        <v>917.11259999999993</v>
+      </c>
+      <c r="AK53" s="1">
+        <f t="shared" si="13"/>
+        <v>94.248427672955955</v>
+      </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -8741,8 +11221,19 @@
         <f t="shared" si="11"/>
         <v>48.048218029350103</v>
       </c>
+      <c r="AI54" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AJ54" s="5">
+        <f t="shared" si="14"/>
+        <v>953.43040000000008</v>
+      </c>
+      <c r="AK54" s="1">
+        <f t="shared" si="13"/>
+        <v>96.096436058700206</v>
+      </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -8841,8 +11332,19 @@
         <f t="shared" si="11"/>
         <v>48.972222222222221</v>
       </c>
+      <c r="AI55" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="AJ55" s="5">
+        <f t="shared" si="14"/>
+        <v>990.45339999999999</v>
+      </c>
+      <c r="AK55" s="1">
+        <f t="shared" si="13"/>
+        <v>97.944444444444443</v>
+      </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -8941,8 +11443,19 @@
         <f t="shared" si="11"/>
         <v>49.896226415094333</v>
       </c>
+      <c r="AI56" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="AJ56" s="5">
+        <f t="shared" si="14"/>
+        <v>1028.1816000000001</v>
+      </c>
+      <c r="AK56" s="1">
+        <f t="shared" si="13"/>
+        <v>99.792452830188665</v>
+      </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -9041,8 +11554,18 @@
         <f t="shared" si="11"/>
         <v>50.820230607966451</v>
       </c>
+      <c r="AI57" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="AJ57">
+        <v>1028.18</v>
+      </c>
+      <c r="AK57" s="1">
+        <f t="shared" si="13"/>
+        <v>97.977892128835521</v>
+      </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -9141,8 +11664,18 @@
         <f t="shared" si="11"/>
         <v>51.744234800838562</v>
       </c>
+      <c r="AI58" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="AJ58">
+        <v>1028.18</v>
+      </c>
+      <c r="AK58" s="1">
+        <f t="shared" si="13"/>
+        <v>96.228286912249189</v>
+      </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -9241,8 +11774,18 @@
         <f t="shared" si="11"/>
         <v>52.668238993710695</v>
       </c>
+      <c r="AI59" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="AJ59">
+        <v>1028.18</v>
+      </c>
+      <c r="AK59" s="1">
+        <f t="shared" si="13"/>
+        <v>94.540071352385141</v>
+      </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>58</v>
       </c>
@@ -9341,8 +11884,18 @@
         <f t="shared" si="11"/>
         <v>53.592243186582799</v>
       </c>
+      <c r="AI60" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="AJ60">
+        <v>1028.18</v>
+      </c>
+      <c r="AK60" s="1">
+        <f t="shared" si="13"/>
+        <v>92.910070122171618</v>
+      </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -9441,8 +11994,18 @@
         <f t="shared" si="11"/>
         <v>54.516247379454917</v>
       </c>
+      <c r="AI61" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="AJ61">
+        <v>1028.18</v>
+      </c>
+      <c r="AK61" s="1">
+        <f t="shared" si="13"/>
+        <v>91.335323170948385</v>
+      </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>60</v>
       </c>
@@ -9541,8 +12104,18 @@
         <f t="shared" si="11"/>
         <v>55.440251572327028</v>
       </c>
+      <c r="AI62" s="6">
+        <v>6</v>
+      </c>
+      <c r="AJ62">
+        <v>1028.18</v>
+      </c>
+      <c r="AK62" s="1">
+        <f t="shared" si="13"/>
+        <v>89.813067784765892</v>
+      </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>61</v>
       </c>
@@ -9641,8 +12214,18 @@
         <f t="shared" si="11"/>
         <v>56.364255765199147</v>
       </c>
+      <c r="AI63" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="AJ63">
+        <v>1028.18</v>
+      </c>
+      <c r="AK63" s="1">
+        <f t="shared" si="13"/>
+        <v>88.340722411245139</v>
+      </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>62</v>
       </c>
@@ -9741,8 +12324,18 @@
         <f t="shared" si="11"/>
         <v>57.288259958071286</v>
       </c>
+      <c r="AI64" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="AJ64">
+        <v>1028.18</v>
+      </c>
+      <c r="AK64" s="1">
+        <f t="shared" si="13"/>
+        <v>86.915872049773455</v>
+      </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>63</v>
       </c>
@@ -9841,8 +12434,18 @@
         <f t="shared" si="11"/>
         <v>58.21226415094339</v>
       </c>
+      <c r="AI65" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="AJ65">
+        <v>1028.18</v>
+      </c>
+      <c r="AK65" s="1">
+        <f t="shared" si="13"/>
+        <v>85.536255033110393</v>
+      </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>64</v>
       </c>
@@ -9941,8 +12544,18 @@
         <f t="shared" si="11"/>
         <v>59.136268343815516</v>
       </c>
+      <c r="AI66" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="AJ66">
+        <v>1028.18</v>
+      </c>
+      <c r="AK66" s="1">
+        <f t="shared" si="13"/>
+        <v>84.199751048218033</v>
+      </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>65</v>
       </c>
@@ -10041,8 +12654,18 @@
         <f t="shared" si="11"/>
         <v>60.06027253668762</v>
       </c>
+      <c r="AI67" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="AJ67">
+        <v>1028.18</v>
+      </c>
+      <c r="AK67" s="1">
+        <f t="shared" si="13"/>
+        <v>82.904370262860823</v>
+      </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -10053,11 +12676,11 @@
         <v>17.63</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" ref="D68:D110" si="12">E68/B68</f>
+        <f t="shared" ref="D68:D110" si="15">E68/B68</f>
         <v>116.35799999999999</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" ref="E68:E110" si="13">(B68)^2*C68</f>
+        <f t="shared" ref="E68:E110" si="16">(B68)^2*C68</f>
         <v>767.9627999999999</v>
       </c>
       <c r="F68" s="6"/>
@@ -10068,14 +12691,14 @@
         <v>6.6</v>
       </c>
       <c r="I68" s="7">
-        <f t="shared" ref="I68:I110" si="14">J68/H68</f>
+        <f t="shared" ref="I68:I110" si="17">J68/H68</f>
         <v>28.909090909090914</v>
       </c>
       <c r="J68" s="6">
         <v>190.8</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" ref="K68:K110" si="15">J68*H68</f>
+        <f t="shared" ref="K68:K110" si="18">J68*H68</f>
         <v>1259.28</v>
       </c>
       <c r="L68" s="6"/>
@@ -10089,11 +12712,11 @@
         <v>70.53</v>
       </c>
       <c r="P68" s="7">
-        <f t="shared" ref="P68:P110" si="16">Q68/N68</f>
+        <f t="shared" ref="P68:P110" si="19">Q68/N68</f>
         <v>465.49799999999999</v>
       </c>
       <c r="Q68" s="7">
-        <f t="shared" ref="Q68:Q110" si="17">N68^2*O68</f>
+        <f t="shared" ref="Q68:Q110" si="20">N68^2*O68</f>
         <v>3072.2867999999999</v>
       </c>
       <c r="R68" s="6"/>
@@ -10108,11 +12731,11 @@
         <v>35.26</v>
       </c>
       <c r="W68" s="7">
-        <f t="shared" ref="W68:W110" si="18">X68/U68</f>
+        <f t="shared" ref="W68:W110" si="21">X68/U68</f>
         <v>232.71599999999998</v>
       </c>
       <c r="X68" s="7">
-        <f t="shared" ref="X68:X110" si="19">U68^2*V68</f>
+        <f t="shared" ref="X68:X110" si="22">U68^2*V68</f>
         <v>1535.9255999999998</v>
       </c>
       <c r="Y68" s="6"/>
@@ -10126,23 +12749,33 @@
         <v>17.63</v>
       </c>
       <c r="AC68" s="7">
-        <f t="shared" ref="AC68:AC110" si="20">AD68/AA68</f>
+        <f t="shared" ref="AC68:AC110" si="23">AD68/AA68</f>
         <v>116.35799999999999</v>
       </c>
       <c r="AD68" s="7">
-        <f t="shared" ref="AD68:AD110" si="21">AA68^2*AB68</f>
+        <f t="shared" ref="AD68:AD110" si="24">AA68^2*AB68</f>
         <v>767.9627999999999</v>
       </c>
       <c r="AF68" s="1">
-        <f t="shared" ref="AF68:AF110" si="22">(E68/K68)*100</f>
+        <f t="shared" ref="AF68:AF110" si="25">(E68/K68)*100</f>
         <v>60.984276729559738</v>
       </c>
       <c r="AG68" s="1">
-        <f t="shared" ref="AG68:AG110" si="23">(AD68/K68)*100</f>
+        <f t="shared" ref="AG68:AG110" si="26">(AD68/K68)*100</f>
         <v>60.984276729559738</v>
       </c>
+      <c r="AI68" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="AJ68">
+        <v>1028.18</v>
+      </c>
+      <c r="AK68" s="1">
+        <f t="shared" ref="AK68:AK110" si="27">(AJ68/K68)*100</f>
+        <v>81.648243440696277</v>
+      </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -10153,11 +12786,11 @@
         <v>17.63</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>118.121</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>791.41070000000002</v>
       </c>
       <c r="F69" s="6"/>
@@ -10168,14 +12801,14 @@
         <v>6.7</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>28.477611940298509</v>
       </c>
       <c r="J69" s="6">
         <v>190.8</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1278.3600000000001</v>
       </c>
       <c r="L69" s="6"/>
@@ -10189,11 +12822,11 @@
         <v>70.53</v>
       </c>
       <c r="P69" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>472.55099999999999</v>
       </c>
       <c r="Q69" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3166.0916999999999</v>
       </c>
       <c r="R69" s="6"/>
@@ -10208,11 +12841,11 @@
         <v>35.26</v>
       </c>
       <c r="W69" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>236.24199999999999</v>
       </c>
       <c r="X69" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1582.8214</v>
       </c>
       <c r="Y69" s="6"/>
@@ -10226,23 +12859,33 @@
         <v>17.63</v>
       </c>
       <c r="AC69" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>118.121</v>
       </c>
       <c r="AD69" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>791.41070000000002</v>
       </c>
       <c r="AF69" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>61.908280922431857</v>
       </c>
       <c r="AG69" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>61.908280922431857</v>
       </c>
+      <c r="AI69" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="AJ69">
+        <v>1028.18</v>
+      </c>
+      <c r="AK69" s="1">
+        <f t="shared" si="27"/>
+        <v>80.429612941581397</v>
+      </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -10253,11 +12896,11 @@
         <v>17.63</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>119.88399999999999</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>815.21119999999985</v>
       </c>
       <c r="F70" s="6"/>
@@ -10268,14 +12911,14 @@
         <v>6.8</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>28.058823529411768</v>
       </c>
       <c r="J70" s="6">
         <v>190.8</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1297.44</v>
       </c>
       <c r="L70" s="6"/>
@@ -10289,11 +12932,11 @@
         <v>70.53</v>
       </c>
       <c r="P70" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>479.60399999999998</v>
       </c>
       <c r="Q70" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3261.3071999999997</v>
       </c>
       <c r="R70" s="6"/>
@@ -10308,11 +12951,11 @@
         <v>35.26</v>
       </c>
       <c r="W70" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>239.76799999999997</v>
       </c>
       <c r="X70" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1630.4223999999997</v>
       </c>
       <c r="Y70" s="6"/>
@@ -10326,23 +12969,33 @@
         <v>17.63</v>
       </c>
       <c r="AC70" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>119.88399999999999</v>
       </c>
       <c r="AD70" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>815.21119999999985</v>
       </c>
       <c r="AF70" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>62.832285115303968</v>
       </c>
       <c r="AG70" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>62.832285115303968</v>
       </c>
+      <c r="AI70" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="AJ70">
+        <v>1028.18</v>
+      </c>
+      <c r="AK70" s="1">
+        <f t="shared" si="27"/>
+        <v>79.246824515969919</v>
+      </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -10353,11 +13006,11 @@
         <v>17.63</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>121.64700000000001</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>839.36430000000007</v>
       </c>
       <c r="F71" s="6"/>
@@ -10368,14 +13021,14 @@
         <v>6.9</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27.652173913043477</v>
       </c>
       <c r="J71" s="6">
         <v>190.8</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1316.5200000000002</v>
       </c>
       <c r="L71" s="6"/>
@@ -10389,11 +13042,11 @@
         <v>70.53</v>
       </c>
       <c r="P71" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>486.65700000000004</v>
       </c>
       <c r="Q71" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3357.9333000000006</v>
       </c>
       <c r="R71" s="6"/>
@@ -10408,11 +13061,11 @@
         <v>35.26</v>
       </c>
       <c r="W71" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>243.29400000000001</v>
       </c>
       <c r="X71" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1678.7286000000001</v>
       </c>
       <c r="Y71" s="6"/>
@@ -10426,23 +13079,33 @@
         <v>17.63</v>
       </c>
       <c r="AC71" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>121.64700000000001</v>
       </c>
       <c r="AD71" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>839.36430000000007</v>
       </c>
       <c r="AF71" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>63.756289308176093</v>
       </c>
       <c r="AG71" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>63.756289308176093</v>
       </c>
+      <c r="AI71" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="AJ71">
+        <v>1028.18</v>
+      </c>
+      <c r="AK71" s="1">
+        <f t="shared" si="27"/>
+        <v>78.098319812839904</v>
+      </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>70</v>
       </c>
@@ -10453,11 +13116,11 @@
         <v>17.63</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>123.41</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>863.87</v>
       </c>
       <c r="F72" s="6"/>
@@ -10468,14 +13131,14 @@
         <v>7</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>27.25714285714286</v>
       </c>
       <c r="J72" s="6">
         <v>190.8</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1335.6000000000001</v>
       </c>
       <c r="L72" s="6"/>
@@ -10489,11 +13152,11 @@
         <v>70.53</v>
       </c>
       <c r="P72" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>493.71000000000004</v>
       </c>
       <c r="Q72" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3455.9700000000003</v>
       </c>
       <c r="R72" s="6"/>
@@ -10508,11 +13171,11 @@
         <v>35.26</v>
       </c>
       <c r="W72" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>246.82</v>
       </c>
       <c r="X72" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1727.74</v>
       </c>
       <c r="Y72" s="6"/>
@@ -10526,23 +13189,33 @@
         <v>17.63</v>
       </c>
       <c r="AC72" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>123.41</v>
       </c>
       <c r="AD72" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>863.87</v>
       </c>
       <c r="AF72" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>64.680293501048212</v>
       </c>
       <c r="AG72" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>64.680293501048212</v>
       </c>
+      <c r="AI72" s="6">
+        <v>7</v>
+      </c>
+      <c r="AJ72">
+        <v>1028.18</v>
+      </c>
+      <c r="AK72" s="1">
+        <f t="shared" si="27"/>
+        <v>76.98262952979934</v>
+      </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -10553,11 +13226,11 @@
         <v>17.63</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>125.17299999999999</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>888.72829999999988</v>
       </c>
       <c r="F73" s="6"/>
@@ -10568,14 +13241,14 @@
         <v>7.1</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.87323943661972</v>
       </c>
       <c r="J73" s="6">
         <v>190.8</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1354.68</v>
       </c>
       <c r="L73" s="6"/>
@@ -10589,11 +13262,11 @@
         <v>70.53</v>
       </c>
       <c r="P73" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>500.76299999999998</v>
       </c>
       <c r="Q73" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3555.4172999999996</v>
       </c>
       <c r="R73" s="6"/>
@@ -10608,11 +13281,11 @@
         <v>35.26</v>
       </c>
       <c r="W73" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>250.34599999999998</v>
       </c>
       <c r="X73" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1777.4565999999998</v>
       </c>
       <c r="Y73" s="6"/>
@@ -10626,23 +13299,33 @@
         <v>17.63</v>
       </c>
       <c r="AC73" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>125.17299999999999</v>
       </c>
       <c r="AD73" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>888.72829999999988</v>
       </c>
       <c r="AF73" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>65.604297693920316</v>
       </c>
       <c r="AG73" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>65.604297693920316</v>
       </c>
+      <c r="AI73" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="AJ73">
+        <v>1028.18</v>
+      </c>
+      <c r="AK73" s="1">
+        <f t="shared" si="27"/>
+        <v>75.89836714205569</v>
+      </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>72</v>
       </c>
@@ -10653,11 +13336,11 @@
         <v>17.63</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>126.93600000000001</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>913.93920000000003</v>
       </c>
       <c r="F74" s="6"/>
@@ -10668,14 +13351,14 @@
         <v>7.2</v>
       </c>
       <c r="I74" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.5</v>
       </c>
       <c r="J74" s="6">
         <v>190.8</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1373.7600000000002</v>
       </c>
       <c r="L74" s="6"/>
@@ -10689,11 +13372,11 @@
         <v>70.53</v>
       </c>
       <c r="P74" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>507.81600000000003</v>
       </c>
       <c r="Q74" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3656.2752000000005</v>
       </c>
       <c r="R74" s="6"/>
@@ -10708,11 +13391,11 @@
         <v>35.26</v>
       </c>
       <c r="W74" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>253.87200000000001</v>
       </c>
       <c r="X74" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1827.8784000000001</v>
       </c>
       <c r="Y74" s="6"/>
@@ -10726,23 +13409,33 @@
         <v>17.63</v>
       </c>
       <c r="AC74" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>126.93600000000001</v>
       </c>
       <c r="AD74" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>913.93920000000003</v>
       </c>
       <c r="AF74" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>66.528301886792434</v>
       </c>
       <c r="AG74" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>66.528301886792434</v>
       </c>
+      <c r="AI74" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="AJ74">
+        <v>1028.18</v>
+      </c>
+      <c r="AK74" s="1">
+        <f t="shared" si="27"/>
+        <v>74.844223153971583</v>
+      </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>73</v>
       </c>
@@ -10753,11 +13446,11 @@
         <v>17.63</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>128.69899999999998</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>939.50269999999989</v>
       </c>
       <c r="F75" s="6"/>
@@ -10768,14 +13461,14 @@
         <v>7.3</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.136986301369866</v>
       </c>
       <c r="J75" s="6">
         <v>190.8</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1392.8400000000001</v>
       </c>
       <c r="L75" s="6"/>
@@ -10789,11 +13482,11 @@
         <v>70.53</v>
       </c>
       <c r="P75" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>514.86900000000003</v>
       </c>
       <c r="Q75" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3758.5437000000002</v>
       </c>
       <c r="R75" s="6"/>
@@ -10808,11 +13501,11 @@
         <v>35.26</v>
       </c>
       <c r="W75" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>257.39799999999997</v>
       </c>
       <c r="X75" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1879.0053999999998</v>
       </c>
       <c r="Y75" s="6"/>
@@ -10826,23 +13519,33 @@
         <v>17.63</v>
       </c>
       <c r="AC75" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>128.69899999999998</v>
       </c>
       <c r="AD75" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>939.50269999999989</v>
       </c>
       <c r="AF75" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>67.452306079664552</v>
       </c>
       <c r="AG75" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>67.452306079664552</v>
       </c>
+      <c r="AI75" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="AJ75">
+        <v>1028.18</v>
+      </c>
+      <c r="AK75" s="1">
+        <f t="shared" si="27"/>
+        <v>73.818959823095256</v>
+      </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>74</v>
       </c>
@@ -10853,11 +13556,11 @@
         <v>17.63</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>130.46199999999999</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>965.41880000000003</v>
       </c>
       <c r="F76" s="6"/>
@@ -10868,14 +13571,14 @@
         <v>7.4</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.783783783783782</v>
       </c>
       <c r="J76" s="6">
         <v>190.8</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1411.92</v>
       </c>
       <c r="L76" s="6"/>
@@ -10889,11 +13592,11 @@
         <v>70.53</v>
       </c>
       <c r="P76" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>521.92200000000003</v>
       </c>
       <c r="Q76" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3862.2228000000005</v>
       </c>
       <c r="R76" s="6"/>
@@ -10908,11 +13611,11 @@
         <v>35.26</v>
       </c>
       <c r="W76" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>260.92399999999998</v>
       </c>
       <c r="X76" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1930.8376000000001</v>
       </c>
       <c r="Y76" s="6"/>
@@ -10926,23 +13629,33 @@
         <v>17.63</v>
       </c>
       <c r="AC76" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>130.46199999999999</v>
       </c>
       <c r="AD76" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>965.41880000000003</v>
       </c>
       <c r="AF76" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>68.376310272536685</v>
       </c>
       <c r="AG76" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>68.376310272536685</v>
       </c>
+      <c r="AI76" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="AJ76">
+        <v>1028.18</v>
+      </c>
+      <c r="AK76" s="1">
+        <f t="shared" si="27"/>
+        <v>72.821406311972353</v>
+      </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>75</v>
       </c>
@@ -10953,11 +13666,11 @@
         <v>17.63</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>132.22499999999999</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>991.6875</v>
       </c>
       <c r="F77" s="6"/>
@@ -10968,14 +13681,14 @@
         <v>7.5</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.44</v>
       </c>
       <c r="J77" s="6">
         <v>190.8</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1431</v>
       </c>
       <c r="L77" s="6"/>
@@ -10989,11 +13702,11 @@
         <v>70.53</v>
       </c>
       <c r="P77" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>528.97500000000002</v>
       </c>
       <c r="Q77" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3967.3125</v>
       </c>
       <c r="R77" s="6"/>
@@ -11008,11 +13721,11 @@
         <v>35.26</v>
       </c>
       <c r="W77" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>264.45</v>
       </c>
       <c r="X77" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1983.375</v>
       </c>
       <c r="Y77" s="6"/>
@@ -11026,23 +13739,33 @@
         <v>17.63</v>
       </c>
       <c r="AC77" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>132.22499999999999</v>
       </c>
       <c r="AD77" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>991.6875</v>
       </c>
       <c r="AF77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>69.300314465408803</v>
       </c>
       <c r="AG77" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>69.300314465408803</v>
       </c>
+      <c r="AI77" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="AJ77">
+        <v>1028.18</v>
+      </c>
+      <c r="AK77" s="1">
+        <f t="shared" si="27"/>
+        <v>71.850454227812719</v>
+      </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>76</v>
       </c>
@@ -11053,11 +13776,11 @@
         <v>17.63</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>133.988</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1018.3087999999999</v>
       </c>
       <c r="F78" s="6"/>
@@ -11068,14 +13791,14 @@
         <v>7.6</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.10526315789474</v>
       </c>
       <c r="J78" s="6">
         <v>190.8</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1450.08</v>
       </c>
       <c r="L78" s="6"/>
@@ -11089,11 +13812,11 @@
         <v>70.53</v>
       </c>
       <c r="P78" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>536.02800000000002</v>
       </c>
       <c r="Q78" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4073.8128000000002</v>
       </c>
       <c r="R78" s="6"/>
@@ -11108,11 +13831,11 @@
         <v>35.26</v>
       </c>
       <c r="W78" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>267.976</v>
       </c>
       <c r="X78" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2036.6175999999998</v>
       </c>
       <c r="Y78" s="6"/>
@@ -11126,23 +13849,33 @@
         <v>17.63</v>
       </c>
       <c r="AC78" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>133.988</v>
       </c>
       <c r="AD78" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1018.3087999999999</v>
       </c>
       <c r="AF78" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>70.224318658280922</v>
       </c>
       <c r="AG78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>70.224318658280922</v>
       </c>
+      <c r="AI78" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="AJ78">
+        <v>1028.18</v>
+      </c>
+      <c r="AK78" s="1">
+        <f t="shared" si="27"/>
+        <v>70.90505351428888</v>
+      </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>77</v>
       </c>
@@ -11153,11 +13886,11 @@
         <v>17.63</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>135.751</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1045.2827</v>
       </c>
       <c r="F79" s="6"/>
@@ -11168,14 +13901,14 @@
         <v>7.7</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.779220779220779</v>
       </c>
       <c r="J79" s="6">
         <v>190.8</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1469.16</v>
       </c>
       <c r="L79" s="6"/>
@@ -11189,11 +13922,11 @@
         <v>70.53</v>
       </c>
       <c r="P79" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>543.08100000000002</v>
       </c>
       <c r="Q79" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4181.7237000000005</v>
       </c>
       <c r="R79" s="6"/>
@@ -11208,11 +13941,11 @@
         <v>35.26</v>
       </c>
       <c r="W79" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>271.50200000000001</v>
       </c>
       <c r="X79" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2090.5654</v>
       </c>
       <c r="Y79" s="6"/>
@@ -11226,23 +13959,34 @@
         <v>17.63</v>
       </c>
       <c r="AC79" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>135.751</v>
       </c>
       <c r="AD79" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1045.2827</v>
       </c>
       <c r="AF79" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>71.14832285115304</v>
       </c>
       <c r="AG79" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>71.14832285115304</v>
       </c>
+      <c r="AI79" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="AJ79" s="7">
+        <f>(AI79)^2*C79</f>
+        <v>1045.2827</v>
+      </c>
+      <c r="AK79" s="1">
+        <f t="shared" si="27"/>
+        <v>71.14832285115304</v>
+      </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>78</v>
       </c>
@@ -11253,11 +13997,11 @@
         <v>17.63</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>137.51399999999998</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1072.6091999999999</v>
       </c>
       <c r="F80" s="6"/>
@@ -11268,14 +14012,14 @@
         <v>7.8</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.461538461538463</v>
       </c>
       <c r="J80" s="6">
         <v>190.8</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1488.24</v>
       </c>
       <c r="L80" s="6"/>
@@ -11289,11 +14033,11 @@
         <v>70.53</v>
       </c>
       <c r="P80" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>550.1339999999999</v>
       </c>
       <c r="Q80" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4291.0451999999996</v>
       </c>
       <c r="R80" s="6"/>
@@ -11308,11 +14052,11 @@
         <v>35.26</v>
       </c>
       <c r="W80" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>275.02799999999996</v>
       </c>
       <c r="X80" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2145.2183999999997</v>
       </c>
       <c r="Y80" s="6"/>
@@ -11326,23 +14070,34 @@
         <v>17.63</v>
       </c>
       <c r="AC80" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>137.51399999999998</v>
       </c>
       <c r="AD80" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1072.6091999999999</v>
       </c>
       <c r="AF80" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>72.072327044025158</v>
       </c>
       <c r="AG80" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>72.072327044025158</v>
       </c>
+      <c r="AI80" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="AJ80" s="7">
+        <f t="shared" ref="AJ80:AJ110" si="28">(AI80)^2*C80</f>
+        <v>1072.6091999999999</v>
+      </c>
+      <c r="AK80" s="1">
+        <f t="shared" si="27"/>
+        <v>72.072327044025158</v>
+      </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>79</v>
       </c>
@@ -11353,11 +14108,11 @@
         <v>17.63</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>139.27699999999999</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1100.2882999999999</v>
       </c>
       <c r="F81" s="6"/>
@@ -11368,14 +14123,14 @@
         <v>7.9</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24.151898734177216</v>
       </c>
       <c r="J81" s="6">
         <v>190.8</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1507.3200000000002</v>
       </c>
       <c r="L81" s="6"/>
@@ -11389,11 +14144,11 @@
         <v>70.53</v>
       </c>
       <c r="P81" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>557.18700000000001</v>
       </c>
       <c r="Q81" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4401.7773000000007</v>
       </c>
       <c r="R81" s="6"/>
@@ -11408,11 +14163,11 @@
         <v>35.26</v>
       </c>
       <c r="W81" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>278.55399999999997</v>
       </c>
       <c r="X81" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2200.5765999999999</v>
       </c>
       <c r="Y81" s="6"/>
@@ -11426,23 +14181,34 @@
         <v>17.63</v>
       </c>
       <c r="AC81" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>139.27699999999999</v>
       </c>
       <c r="AD81" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1100.2882999999999</v>
       </c>
       <c r="AF81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>72.996331236897262</v>
       </c>
       <c r="AG81" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>72.996331236897262</v>
       </c>
+      <c r="AI81" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="AJ81" s="7">
+        <f t="shared" si="28"/>
+        <v>1100.2882999999999</v>
+      </c>
+      <c r="AK81" s="1">
+        <f t="shared" si="27"/>
+        <v>72.996331236897262</v>
+      </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>80</v>
       </c>
@@ -11453,11 +14219,11 @@
         <v>17.63</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>141.04</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1128.32</v>
       </c>
       <c r="F82" s="6"/>
@@ -11468,14 +14234,14 @@
         <v>8</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23.85</v>
       </c>
       <c r="J82" s="6">
         <v>190.8</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1526.4</v>
       </c>
       <c r="L82" s="6"/>
@@ -11489,11 +14255,11 @@
         <v>70.53</v>
       </c>
       <c r="P82" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>564.24</v>
       </c>
       <c r="Q82" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4513.92</v>
       </c>
       <c r="R82" s="6"/>
@@ -11508,11 +14274,11 @@
         <v>35.26</v>
       </c>
       <c r="W82" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>282.08</v>
       </c>
       <c r="X82" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2256.64</v>
       </c>
       <c r="Y82" s="6"/>
@@ -11526,23 +14292,34 @@
         <v>17.63</v>
       </c>
       <c r="AC82" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>141.04</v>
       </c>
       <c r="AD82" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1128.32</v>
       </c>
       <c r="AF82" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>73.920335429769381</v>
       </c>
       <c r="AG82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>73.920335429769381</v>
       </c>
+      <c r="AI82" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ82" s="7">
+        <f t="shared" si="28"/>
+        <v>1128.32</v>
+      </c>
+      <c r="AK82" s="1">
+        <f t="shared" si="27"/>
+        <v>73.920335429769381</v>
+      </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>81</v>
       </c>
@@ -11553,11 +14330,11 @@
         <v>17.63</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>142.803</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1156.7042999999999</v>
       </c>
       <c r="F83" s="6"/>
@@ -11568,14 +14345,14 @@
         <v>8.1</v>
       </c>
       <c r="I83" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23.555555555555557</v>
       </c>
       <c r="J83" s="6">
         <v>190.8</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1545.48</v>
       </c>
       <c r="L83" s="6"/>
@@ -11589,11 +14366,11 @@
         <v>70.53</v>
       </c>
       <c r="P83" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>571.29300000000001</v>
       </c>
       <c r="Q83" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4627.4732999999997</v>
       </c>
       <c r="R83" s="6"/>
@@ -11608,11 +14385,11 @@
         <v>35.26</v>
       </c>
       <c r="W83" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>285.60599999999999</v>
       </c>
       <c r="X83" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2313.4085999999998</v>
       </c>
       <c r="Y83" s="6"/>
@@ -11626,23 +14403,34 @@
         <v>17.63</v>
       </c>
       <c r="AC83" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>142.803</v>
       </c>
       <c r="AD83" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1156.7042999999999</v>
       </c>
       <c r="AF83" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>74.844339622641499</v>
       </c>
       <c r="AG83" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>74.844339622641499</v>
       </c>
+      <c r="AI83" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="AJ83" s="7">
+        <f t="shared" si="28"/>
+        <v>1156.7042999999999</v>
+      </c>
+      <c r="AK83" s="1">
+        <f t="shared" si="27"/>
+        <v>74.844339622641499</v>
+      </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>82</v>
       </c>
@@ -11653,11 +14441,11 @@
         <v>17.63</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>144.56599999999997</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1185.4411999999998</v>
       </c>
       <c r="F84" s="6"/>
@@ -11668,14 +14456,14 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I84" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23.268292682926834</v>
       </c>
       <c r="J84" s="6">
         <v>190.8</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1564.56</v>
       </c>
       <c r="L84" s="6"/>
@@ -11689,11 +14477,11 @@
         <v>70.53</v>
       </c>
       <c r="P84" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>578.346</v>
       </c>
       <c r="Q84" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4742.4371999999994</v>
       </c>
       <c r="R84" s="6"/>
@@ -11708,11 +14496,11 @@
         <v>35.26</v>
       </c>
       <c r="W84" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>289.13199999999995</v>
       </c>
       <c r="X84" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2370.8823999999995</v>
       </c>
       <c r="Y84" s="6"/>
@@ -11726,23 +14514,34 @@
         <v>17.63</v>
       </c>
       <c r="AC84" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>144.56599999999997</v>
       </c>
       <c r="AD84" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1185.4411999999998</v>
       </c>
       <c r="AF84" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>75.768343815513617</v>
       </c>
       <c r="AG84" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>75.768343815513617</v>
       </c>
+      <c r="AI84" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AJ84" s="7">
+        <f t="shared" si="28"/>
+        <v>1185.4411999999998</v>
+      </c>
+      <c r="AK84" s="1">
+        <f t="shared" si="27"/>
+        <v>75.768343815513617</v>
+      </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>83</v>
       </c>
@@ -11753,11 +14552,11 @@
         <v>17.63</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>146.32900000000001</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1214.5307000000003</v>
       </c>
       <c r="F85" s="6"/>
@@ -11768,14 +14567,14 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22.987951807228914</v>
       </c>
       <c r="J85" s="6">
         <v>190.8</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1583.6400000000003</v>
       </c>
       <c r="L85" s="6"/>
@@ -11789,11 +14588,11 @@
         <v>70.53</v>
       </c>
       <c r="P85" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>585.39900000000011</v>
       </c>
       <c r="Q85" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4858.8117000000011</v>
       </c>
       <c r="R85" s="6"/>
@@ -11808,11 +14607,11 @@
         <v>35.26</v>
       </c>
       <c r="W85" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>292.65800000000002</v>
       </c>
       <c r="X85" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2429.0614000000005</v>
       </c>
       <c r="Y85" s="6"/>
@@ -11826,23 +14625,34 @@
         <v>17.63</v>
       </c>
       <c r="AC85" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>146.32900000000001</v>
       </c>
       <c r="AD85" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1214.5307000000003</v>
       </c>
       <c r="AF85" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>76.69234800838575</v>
       </c>
       <c r="AG85" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>76.69234800838575</v>
       </c>
+      <c r="AI85" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AJ85" s="7">
+        <f t="shared" si="28"/>
+        <v>1214.5307000000003</v>
+      </c>
+      <c r="AK85" s="1">
+        <f t="shared" si="27"/>
+        <v>76.69234800838575</v>
+      </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>84</v>
       </c>
@@ -11853,11 +14663,11 @@
         <v>17.63</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>148.09199999999998</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1243.9728</v>
       </c>
       <c r="F86" s="6"/>
@@ -11868,14 +14678,14 @@
         <v>8.4</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22.714285714285715</v>
       </c>
       <c r="J86" s="6">
         <v>190.8</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1602.7200000000003</v>
       </c>
       <c r="L86" s="6"/>
@@ -11889,11 +14699,11 @@
         <v>70.53</v>
       </c>
       <c r="P86" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>592.452</v>
       </c>
       <c r="Q86" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4976.5968000000003</v>
       </c>
       <c r="R86" s="6"/>
@@ -11908,11 +14718,11 @@
         <v>35.26</v>
       </c>
       <c r="W86" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>296.18399999999997</v>
       </c>
       <c r="X86" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2487.9456</v>
       </c>
       <c r="Y86" s="6"/>
@@ -11926,23 +14736,34 @@
         <v>17.63</v>
       </c>
       <c r="AC86" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>148.09199999999998</v>
       </c>
       <c r="AD86" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1243.9728</v>
       </c>
       <c r="AF86" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>77.616352201257854</v>
       </c>
       <c r="AG86" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>77.616352201257854</v>
       </c>
+      <c r="AI86" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="AJ86" s="7">
+        <f t="shared" si="28"/>
+        <v>1243.9728</v>
+      </c>
+      <c r="AK86" s="1">
+        <f t="shared" si="27"/>
+        <v>77.616352201257854</v>
+      </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>85</v>
       </c>
@@ -11953,11 +14774,11 @@
         <v>17.63</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>149.85499999999999</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1273.7674999999999</v>
       </c>
       <c r="F87" s="6"/>
@@ -11968,14 +14789,14 @@
         <v>8.5</v>
       </c>
       <c r="I87" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22.447058823529414</v>
       </c>
       <c r="J87" s="6">
         <v>190.8</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1621.8000000000002</v>
       </c>
       <c r="L87" s="6"/>
@@ -11989,11 +14810,11 @@
         <v>70.53</v>
       </c>
       <c r="P87" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>599.50500000000011</v>
       </c>
       <c r="Q87" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5095.7925000000005</v>
       </c>
       <c r="R87" s="6"/>
@@ -12008,11 +14829,11 @@
         <v>35.26</v>
       </c>
       <c r="W87" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>299.70999999999998</v>
       </c>
       <c r="X87" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2547.5349999999999</v>
       </c>
       <c r="Y87" s="6"/>
@@ -12026,23 +14847,34 @@
         <v>17.63</v>
       </c>
       <c r="AC87" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>149.85499999999999</v>
       </c>
       <c r="AD87" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1273.7674999999999</v>
       </c>
       <c r="AF87" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>78.540356394129958</v>
       </c>
       <c r="AG87" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>78.540356394129958</v>
       </c>
+      <c r="AI87" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="AJ87" s="7">
+        <f t="shared" si="28"/>
+        <v>1273.7674999999999</v>
+      </c>
+      <c r="AK87" s="1">
+        <f t="shared" si="27"/>
+        <v>78.540356394129958</v>
+      </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>86</v>
       </c>
@@ -12053,11 +14885,11 @@
         <v>17.63</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>151.61799999999999</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1303.9147999999998</v>
       </c>
       <c r="F88" s="6"/>
@@ -12068,14 +14900,14 @@
         <v>8.6</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22.186046511627911</v>
       </c>
       <c r="J88" s="6">
         <v>190.8</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1640.88</v>
       </c>
       <c r="L88" s="6"/>
@@ -12089,11 +14921,11 @@
         <v>70.53</v>
       </c>
       <c r="P88" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>606.55799999999999</v>
       </c>
       <c r="Q88" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5216.3987999999999</v>
       </c>
       <c r="R88" s="6"/>
@@ -12108,11 +14940,11 @@
         <v>35.26</v>
       </c>
       <c r="W88" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>303.23599999999999</v>
       </c>
       <c r="X88" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2607.8295999999996</v>
       </c>
       <c r="Y88" s="6"/>
@@ -12126,23 +14958,34 @@
         <v>17.63</v>
       </c>
       <c r="AC88" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>151.61799999999999</v>
       </c>
       <c r="AD88" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1303.9147999999998</v>
       </c>
       <c r="AF88" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>79.464360587002076</v>
       </c>
       <c r="AG88" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>79.464360587002076</v>
       </c>
+      <c r="AI88" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="AJ88" s="7">
+        <f t="shared" si="28"/>
+        <v>1303.9147999999998</v>
+      </c>
+      <c r="AK88" s="1">
+        <f t="shared" si="27"/>
+        <v>79.464360587002076</v>
+      </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>87</v>
       </c>
@@ -12153,11 +14996,11 @@
         <v>17.63</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>153.38099999999997</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1334.4146999999996</v>
       </c>
       <c r="F89" s="6"/>
@@ -12168,14 +15011,14 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I89" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21.931034482758623</v>
       </c>
       <c r="J89" s="6">
         <v>190.8</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1659.96</v>
       </c>
       <c r="L89" s="6"/>
@@ -12189,11 +15032,11 @@
         <v>70.53</v>
       </c>
       <c r="P89" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>613.61099999999988</v>
       </c>
       <c r="Q89" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5338.4156999999987</v>
       </c>
       <c r="R89" s="6"/>
@@ -12208,11 +15051,11 @@
         <v>35.26</v>
       </c>
       <c r="W89" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>306.76199999999994</v>
       </c>
       <c r="X89" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2668.8293999999992</v>
       </c>
       <c r="Y89" s="6"/>
@@ -12226,23 +15069,34 @@
         <v>17.63</v>
       </c>
       <c r="AC89" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>153.38099999999997</v>
       </c>
       <c r="AD89" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1334.4146999999996</v>
       </c>
       <c r="AF89" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>80.388364779874195</v>
       </c>
       <c r="AG89" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>80.388364779874195</v>
       </c>
+      <c r="AI89" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AJ89" s="7">
+        <f t="shared" si="28"/>
+        <v>1334.4146999999996</v>
+      </c>
+      <c r="AK89" s="1">
+        <f t="shared" si="27"/>
+        <v>80.388364779874195</v>
+      </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>88</v>
       </c>
@@ -12253,11 +15107,11 @@
         <v>17.63</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>155.14400000000001</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1365.2672000000002</v>
       </c>
       <c r="F90" s="6"/>
@@ -12268,14 +15122,14 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21.68181818181818</v>
       </c>
       <c r="J90" s="6">
         <v>190.8</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1679.0400000000002</v>
       </c>
       <c r="L90" s="6"/>
@@ -12289,11 +15143,11 @@
         <v>70.53</v>
       </c>
       <c r="P90" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>620.6640000000001</v>
       </c>
       <c r="Q90" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5461.8432000000012</v>
       </c>
       <c r="R90" s="6"/>
@@ -12308,11 +15162,11 @@
         <v>35.26</v>
       </c>
       <c r="W90" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>310.28800000000001</v>
       </c>
       <c r="X90" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2730.5344000000005</v>
       </c>
       <c r="Y90" s="6"/>
@@ -12326,23 +15180,34 @@
         <v>17.63</v>
       </c>
       <c r="AC90" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>155.14400000000001</v>
       </c>
       <c r="AD90" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1365.2672000000002</v>
       </c>
       <c r="AF90" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>81.312368972746341</v>
       </c>
       <c r="AG90" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>81.312368972746341</v>
       </c>
+      <c r="AI90" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AJ90" s="7">
+        <f t="shared" si="28"/>
+        <v>1365.2672000000002</v>
+      </c>
+      <c r="AK90" s="1">
+        <f t="shared" si="27"/>
+        <v>81.312368972746341</v>
+      </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>89</v>
       </c>
@@ -12353,11 +15218,11 @@
         <v>17.63</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>156.90700000000001</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1396.4723000000001</v>
       </c>
       <c r="F91" s="6"/>
@@ -12368,14 +15233,14 @@
         <v>8.9</v>
       </c>
       <c r="I91" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21.438202247191011</v>
       </c>
       <c r="J91" s="6">
         <v>190.8</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1698.1200000000001</v>
       </c>
       <c r="L91" s="6"/>
@@ -12389,11 +15254,11 @@
         <v>70.53</v>
       </c>
       <c r="P91" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>627.7170000000001</v>
       </c>
       <c r="Q91" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5586.6813000000011</v>
       </c>
       <c r="R91" s="6"/>
@@ -12408,11 +15273,11 @@
         <v>35.26</v>
       </c>
       <c r="W91" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>313.81400000000002</v>
       </c>
       <c r="X91" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2792.9446000000003</v>
       </c>
       <c r="Y91" s="6"/>
@@ -12426,23 +15291,34 @@
         <v>17.63</v>
       </c>
       <c r="AC91" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>156.90700000000001</v>
       </c>
       <c r="AD91" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1396.4723000000001</v>
       </c>
       <c r="AF91" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>82.236373165618446</v>
       </c>
       <c r="AG91" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>82.236373165618446</v>
       </c>
+      <c r="AI91" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="AJ91" s="7">
+        <f t="shared" si="28"/>
+        <v>1396.4723000000001</v>
+      </c>
+      <c r="AK91" s="1">
+        <f t="shared" si="27"/>
+        <v>82.236373165618446</v>
+      </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>90</v>
       </c>
@@ -12453,11 +15329,11 @@
         <v>17.63</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>158.66999999999999</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1428.03</v>
       </c>
       <c r="F92" s="6"/>
@@ -12468,14 +15344,14 @@
         <v>9</v>
       </c>
       <c r="I92" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21.200000000000003</v>
       </c>
       <c r="J92" s="6">
         <v>190.8</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1717.2</v>
       </c>
       <c r="L92" s="6"/>
@@ -12489,11 +15365,11 @@
         <v>70.53</v>
       </c>
       <c r="P92" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>634.77</v>
       </c>
       <c r="Q92" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5712.93</v>
       </c>
       <c r="R92" s="6"/>
@@ -12508,11 +15384,11 @@
         <v>35.26</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>317.33999999999997</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2856.06</v>
       </c>
       <c r="Y92" s="6"/>
@@ -12526,23 +15402,34 @@
         <v>17.63</v>
       </c>
       <c r="AC92" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>158.66999999999999</v>
       </c>
       <c r="AD92" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1428.03</v>
       </c>
       <c r="AF92" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>83.160377358490564</v>
       </c>
       <c r="AG92" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>83.160377358490564</v>
       </c>
+      <c r="AI92" s="6">
+        <v>9</v>
+      </c>
+      <c r="AJ92" s="7">
+        <f t="shared" si="28"/>
+        <v>1428.03</v>
+      </c>
+      <c r="AK92" s="1">
+        <f t="shared" si="27"/>
+        <v>83.160377358490564</v>
+      </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>91</v>
       </c>
@@ -12553,11 +15440,11 @@
         <v>17.63</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>160.43299999999999</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1459.9402999999998</v>
       </c>
       <c r="F93" s="6"/>
@@ -12568,14 +15455,14 @@
         <v>9.1</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20.967032967032971</v>
       </c>
       <c r="J93" s="6">
         <v>190.8</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1736.28</v>
       </c>
       <c r="L93" s="6"/>
@@ -12589,11 +15476,11 @@
         <v>70.53</v>
       </c>
       <c r="P93" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>641.82299999999998</v>
       </c>
       <c r="Q93" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5840.5892999999996</v>
       </c>
       <c r="R93" s="6"/>
@@ -12608,11 +15495,11 @@
         <v>35.26</v>
       </c>
       <c r="W93" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>320.86599999999999</v>
       </c>
       <c r="X93" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2919.8805999999995</v>
       </c>
       <c r="Y93" s="6"/>
@@ -12626,23 +15513,34 @@
         <v>17.63</v>
       </c>
       <c r="AC93" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>160.43299999999999</v>
       </c>
       <c r="AD93" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1459.9402999999998</v>
       </c>
       <c r="AF93" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>84.084381551362668</v>
       </c>
       <c r="AG93" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>84.084381551362668</v>
       </c>
+      <c r="AI93" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="AJ93" s="7">
+        <f t="shared" si="28"/>
+        <v>1459.9402999999998</v>
+      </c>
+      <c r="AK93" s="1">
+        <f t="shared" si="27"/>
+        <v>84.084381551362668</v>
+      </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>92</v>
       </c>
@@ -12653,11 +15551,11 @@
         <v>17.63</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>162.19599999999997</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1492.2031999999997</v>
       </c>
       <c r="F94" s="6"/>
@@ -12668,14 +15566,14 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20.739130434782613</v>
       </c>
       <c r="J94" s="6">
         <v>190.8</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1755.36</v>
       </c>
       <c r="L94" s="6"/>
@@ -12689,11 +15587,11 @@
         <v>70.53</v>
       </c>
       <c r="P94" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>648.87599999999998</v>
       </c>
       <c r="Q94" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5969.6591999999991</v>
       </c>
       <c r="R94" s="6"/>
@@ -12708,11 +15606,11 @@
         <v>35.26</v>
       </c>
       <c r="W94" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>324.39199999999994</v>
       </c>
       <c r="X94" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2984.4063999999994</v>
       </c>
       <c r="Y94" s="6"/>
@@ -12726,23 +15624,34 @@
         <v>17.63</v>
       </c>
       <c r="AC94" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>162.19599999999997</v>
       </c>
       <c r="AD94" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1492.2031999999997</v>
       </c>
       <c r="AF94" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>85.008385744234801</v>
       </c>
       <c r="AG94" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>85.008385744234801</v>
       </c>
+      <c r="AI94" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AJ94" s="7">
+        <f t="shared" si="28"/>
+        <v>1492.2031999999997</v>
+      </c>
+      <c r="AK94" s="1">
+        <f t="shared" si="27"/>
+        <v>85.008385744234801</v>
+      </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>93</v>
       </c>
@@ -12753,11 +15662,11 @@
         <v>17.63</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>163.959</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1524.8187</v>
       </c>
       <c r="F95" s="6"/>
@@ -12768,14 +15677,14 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I95" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20.516129032258064</v>
       </c>
       <c r="J95" s="6">
         <v>190.8</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1774.4400000000003</v>
       </c>
       <c r="L95" s="6"/>
@@ -12789,11 +15698,11 @@
         <v>70.53</v>
       </c>
       <c r="P95" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>655.92899999999997</v>
       </c>
       <c r="Q95" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6100.1397000000006</v>
       </c>
       <c r="R95" s="6"/>
@@ -12808,11 +15717,11 @@
         <v>35.26</v>
       </c>
       <c r="W95" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>327.91800000000001</v>
       </c>
       <c r="X95" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3049.6374000000001</v>
       </c>
       <c r="Y95" s="6"/>
@@ -12826,23 +15735,34 @@
         <v>17.63</v>
       </c>
       <c r="AC95" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>163.959</v>
       </c>
       <c r="AD95" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1524.8187</v>
       </c>
       <c r="AF95" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>85.932389937106905</v>
       </c>
       <c r="AG95" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>85.932389937106905</v>
       </c>
+      <c r="AI95" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AJ95" s="7">
+        <f t="shared" si="28"/>
+        <v>1524.8187</v>
+      </c>
+      <c r="AK95" s="1">
+        <f t="shared" si="27"/>
+        <v>85.932389937106905</v>
+      </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>94</v>
       </c>
@@ -12853,11 +15773,11 @@
         <v>17.63</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>165.72200000000001</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1557.7868000000001</v>
       </c>
       <c r="F96" s="6"/>
@@ -12868,14 +15788,14 @@
         <v>9.4</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20.297872340425531</v>
       </c>
       <c r="J96" s="6">
         <v>190.8</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1793.5200000000002</v>
       </c>
       <c r="L96" s="6"/>
@@ -12889,11 +15809,11 @@
         <v>70.53</v>
       </c>
       <c r="P96" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>662.98200000000008</v>
       </c>
       <c r="Q96" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6232.0308000000014</v>
       </c>
       <c r="R96" s="6"/>
@@ -12908,11 +15828,11 @@
         <v>35.26</v>
       </c>
       <c r="W96" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>331.44400000000002</v>
       </c>
       <c r="X96" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3115.5736000000002</v>
       </c>
       <c r="Y96" s="6"/>
@@ -12926,23 +15846,34 @@
         <v>17.63</v>
       </c>
       <c r="AC96" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>165.72200000000001</v>
       </c>
       <c r="AD96" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1557.7868000000001</v>
       </c>
       <c r="AF96" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>86.856394129979037</v>
       </c>
       <c r="AG96" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>86.856394129979037</v>
       </c>
+      <c r="AI96" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="AJ96" s="7">
+        <f t="shared" si="28"/>
+        <v>1557.7868000000001</v>
+      </c>
+      <c r="AK96" s="1">
+        <f t="shared" si="27"/>
+        <v>86.856394129979037</v>
+      </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>95</v>
       </c>
@@ -12953,11 +15884,11 @@
         <v>17.63</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>167.48499999999999</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1591.1074999999998</v>
       </c>
       <c r="F97" s="6"/>
@@ -12968,14 +15899,14 @@
         <v>9.5</v>
       </c>
       <c r="I97" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20.08421052631579</v>
       </c>
       <c r="J97" s="6">
         <v>190.8</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1812.6000000000001</v>
       </c>
       <c r="L97" s="6"/>
@@ -12989,11 +15920,11 @@
         <v>70.53</v>
       </c>
       <c r="P97" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>670.03500000000008</v>
       </c>
       <c r="Q97" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6365.3325000000004</v>
       </c>
       <c r="R97" s="6"/>
@@ -13008,11 +15939,11 @@
         <v>35.26</v>
       </c>
       <c r="W97" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>334.96999999999997</v>
       </c>
       <c r="X97" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3182.2149999999997</v>
       </c>
       <c r="Y97" s="6"/>
@@ -13026,23 +15957,34 @@
         <v>17.63</v>
       </c>
       <c r="AC97" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>167.48499999999999</v>
       </c>
       <c r="AD97" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1591.1074999999998</v>
       </c>
       <c r="AF97" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>87.780398322851141</v>
       </c>
       <c r="AG97" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>87.780398322851141</v>
       </c>
+      <c r="AI97" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="AJ97" s="7">
+        <f t="shared" si="28"/>
+        <v>1591.1074999999998</v>
+      </c>
+      <c r="AK97" s="1">
+        <f t="shared" si="27"/>
+        <v>87.780398322851141</v>
+      </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>96</v>
       </c>
@@ -13053,11 +15995,11 @@
         <v>17.63</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>169.24799999999999</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1624.7807999999998</v>
       </c>
       <c r="F98" s="6"/>
@@ -13068,14 +16010,14 @@
         <v>9.6</v>
       </c>
       <c r="I98" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19.875000000000004</v>
       </c>
       <c r="J98" s="6">
         <v>190.8</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1831.68</v>
       </c>
       <c r="L98" s="6"/>
@@ -13089,11 +16031,11 @@
         <v>70.53</v>
       </c>
       <c r="P98" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>677.08799999999997</v>
       </c>
       <c r="Q98" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6500.0447999999997</v>
       </c>
       <c r="R98" s="6"/>
@@ -13108,11 +16050,11 @@
         <v>35.26</v>
       </c>
       <c r="W98" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>338.49599999999998</v>
       </c>
       <c r="X98" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3249.5615999999995</v>
       </c>
       <c r="Y98" s="6"/>
@@ -13126,23 +16068,34 @@
         <v>17.63</v>
       </c>
       <c r="AC98" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>169.24799999999999</v>
       </c>
       <c r="AD98" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1624.7807999999998</v>
       </c>
       <c r="AF98" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>88.70440251572326</v>
       </c>
       <c r="AG98" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>88.70440251572326</v>
       </c>
+      <c r="AI98" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="AJ98" s="7">
+        <f t="shared" si="28"/>
+        <v>1624.7807999999998</v>
+      </c>
+      <c r="AK98" s="1">
+        <f t="shared" si="27"/>
+        <v>88.70440251572326</v>
+      </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>97</v>
       </c>
@@ -13153,11 +16106,11 @@
         <v>17.63</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>171.01099999999997</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1658.8066999999996</v>
       </c>
       <c r="F99" s="6"/>
@@ -13168,14 +16121,14 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I99" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19.670103092783506</v>
       </c>
       <c r="J99" s="6">
         <v>190.8</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1850.76</v>
       </c>
       <c r="L99" s="6"/>
@@ -13189,11 +16142,11 @@
         <v>70.53</v>
       </c>
       <c r="P99" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>684.14099999999996</v>
       </c>
       <c r="Q99" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6636.1676999999991</v>
       </c>
       <c r="R99" s="6"/>
@@ -13208,11 +16161,11 @@
         <v>35.26</v>
       </c>
       <c r="W99" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>342.02199999999993</v>
       </c>
       <c r="X99" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3317.6133999999993</v>
       </c>
       <c r="Y99" s="6"/>
@@ -13226,23 +16179,34 @@
         <v>17.63</v>
       </c>
       <c r="AC99" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>171.01099999999997</v>
       </c>
       <c r="AD99" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1658.8066999999996</v>
       </c>
       <c r="AF99" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>89.628406708595364</v>
       </c>
       <c r="AG99" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>89.628406708595364</v>
       </c>
+      <c r="AI99" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AJ99" s="7">
+        <f t="shared" si="28"/>
+        <v>1658.8066999999996</v>
+      </c>
+      <c r="AK99" s="1">
+        <f t="shared" si="27"/>
+        <v>89.628406708595364</v>
+      </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>98</v>
       </c>
@@ -13253,11 +16217,11 @@
         <v>17.63</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>172.77400000000003</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1693.1852000000003</v>
       </c>
       <c r="F100" s="6"/>
@@ -13268,14 +16232,14 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I100" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19.469387755102041</v>
       </c>
       <c r="J100" s="6">
         <v>190.8</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1869.8400000000001</v>
       </c>
       <c r="L100" s="6"/>
@@ -13289,11 +16253,11 @@
         <v>70.53</v>
       </c>
       <c r="P100" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>691.19400000000007</v>
       </c>
       <c r="Q100" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6773.7012000000013</v>
       </c>
       <c r="R100" s="6"/>
@@ -13308,11 +16272,11 @@
         <v>35.26</v>
       </c>
       <c r="W100" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>345.54800000000006</v>
       </c>
       <c r="X100" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3386.3704000000007</v>
       </c>
       <c r="Y100" s="6"/>
@@ -13326,23 +16290,34 @@
         <v>17.63</v>
       </c>
       <c r="AC100" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>172.77400000000003</v>
       </c>
       <c r="AD100" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1693.1852000000003</v>
       </c>
       <c r="AF100" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>90.55241090146751</v>
       </c>
       <c r="AG100" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>90.55241090146751</v>
       </c>
+      <c r="AI100" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AJ100" s="7">
+        <f t="shared" si="28"/>
+        <v>1693.1852000000003</v>
+      </c>
+      <c r="AK100" s="1">
+        <f t="shared" si="27"/>
+        <v>90.55241090146751</v>
+      </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>99</v>
       </c>
@@ -13353,11 +16328,11 @@
         <v>17.63</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>174.53700000000001</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1727.9163000000001</v>
       </c>
       <c r="F101" s="6"/>
@@ -13368,14 +16343,14 @@
         <v>9.9</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19.272727272727273</v>
       </c>
       <c r="J101" s="6">
         <v>190.8</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1888.92</v>
       </c>
       <c r="L101" s="6"/>
@@ -13389,11 +16364,11 @@
         <v>70.53</v>
       </c>
       <c r="P101" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>698.24699999999996</v>
       </c>
       <c r="Q101" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6912.6453000000001</v>
       </c>
       <c r="R101" s="6"/>
@@ -13408,11 +16383,11 @@
         <v>35.26</v>
       </c>
       <c r="W101" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>349.07400000000001</v>
       </c>
       <c r="X101" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3455.8326000000002</v>
       </c>
       <c r="Y101" s="6"/>
@@ -13426,23 +16401,34 @@
         <v>17.63</v>
       </c>
       <c r="AC101" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>174.53700000000001</v>
       </c>
       <c r="AD101" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1727.9163000000001</v>
       </c>
       <c r="AF101" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>91.476415094339629</v>
       </c>
       <c r="AG101" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>91.476415094339629</v>
       </c>
+      <c r="AI101" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="AJ101" s="7">
+        <f t="shared" si="28"/>
+        <v>1727.9163000000001</v>
+      </c>
+      <c r="AK101" s="1">
+        <f t="shared" si="27"/>
+        <v>91.476415094339629</v>
+      </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>100</v>
       </c>
@@ -13453,11 +16439,11 @@
         <v>17.63</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>176.3</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1763</v>
       </c>
       <c r="F102" s="6"/>
@@ -13468,14 +16454,14 @@
         <v>10</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19.080000000000002</v>
       </c>
       <c r="J102" s="6">
         <v>190.8</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1908</v>
       </c>
       <c r="L102" s="6"/>
@@ -13489,11 +16475,11 @@
         <v>70.53</v>
       </c>
       <c r="P102" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>705.3</v>
       </c>
       <c r="Q102" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7053</v>
       </c>
       <c r="R102" s="6"/>
@@ -13508,11 +16494,11 @@
         <v>35.26</v>
       </c>
       <c r="W102" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>352.6</v>
       </c>
       <c r="X102" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3526</v>
       </c>
       <c r="Y102" s="6"/>
@@ -13526,23 +16512,34 @@
         <v>17.63</v>
       </c>
       <c r="AC102" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>176.3</v>
       </c>
       <c r="AD102" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1763</v>
       </c>
       <c r="AF102" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>92.400419287211747</v>
       </c>
       <c r="AG102" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>92.400419287211747</v>
       </c>
+      <c r="AI102" s="6">
+        <v>10</v>
+      </c>
+      <c r="AJ102" s="7">
+        <f t="shared" si="28"/>
+        <v>1763</v>
+      </c>
+      <c r="AK102" s="1">
+        <f t="shared" si="27"/>
+        <v>92.400419287211747</v>
+      </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>101</v>
       </c>
@@ -13553,11 +16550,11 @@
         <v>17.63</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>178.06299999999999</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1798.4362999999998</v>
       </c>
       <c r="F103" s="6"/>
@@ -13568,14 +16565,14 @@
         <v>10.1</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18.891089108910894</v>
       </c>
       <c r="J103" s="6">
         <v>190.8</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1927.0800000000002</v>
       </c>
       <c r="L103" s="6"/>
@@ -13589,11 +16586,11 @@
         <v>70.53</v>
       </c>
       <c r="P103" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>712.35299999999995</v>
       </c>
       <c r="Q103" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7194.7652999999991</v>
       </c>
       <c r="R103" s="6"/>
@@ -13608,11 +16605,11 @@
         <v>35.26</v>
       </c>
       <c r="W103" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>356.12599999999998</v>
       </c>
       <c r="X103" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3596.8725999999997</v>
       </c>
       <c r="Y103" s="6"/>
@@ -13626,23 +16623,34 @@
         <v>17.63</v>
       </c>
       <c r="AC103" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>178.06299999999999</v>
       </c>
       <c r="AD103" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1798.4362999999998</v>
       </c>
       <c r="AF103" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>93.324423480083837</v>
       </c>
       <c r="AG103" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>93.324423480083837</v>
       </c>
+      <c r="AI103" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="AJ103" s="7">
+        <f t="shared" si="28"/>
+        <v>1798.4362999999998</v>
+      </c>
+      <c r="AK103" s="1">
+        <f t="shared" si="27"/>
+        <v>93.324423480083837</v>
+      </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>102</v>
       </c>
@@ -13653,11 +16661,11 @@
         <v>17.63</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>179.82599999999999</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1834.2251999999999</v>
       </c>
       <c r="F104" s="6"/>
@@ -13668,14 +16676,14 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I104" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18.705882352941178</v>
       </c>
       <c r="J104" s="6">
         <v>190.8</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1946.16</v>
       </c>
       <c r="L104" s="6"/>
@@ -13689,11 +16697,11 @@
         <v>70.53</v>
       </c>
       <c r="P104" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>719.40599999999995</v>
       </c>
       <c r="Q104" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7337.9411999999993</v>
       </c>
       <c r="R104" s="6"/>
@@ -13708,11 +16716,11 @@
         <v>35.26</v>
       </c>
       <c r="W104" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>359.65199999999999</v>
       </c>
       <c r="X104" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3668.4503999999997</v>
       </c>
       <c r="Y104" s="6"/>
@@ -13726,23 +16734,34 @@
         <v>17.63</v>
       </c>
       <c r="AC104" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>179.82599999999999</v>
       </c>
       <c r="AD104" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1834.2251999999999</v>
       </c>
       <c r="AF104" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>94.248427672955955</v>
       </c>
       <c r="AG104" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>94.248427672955955</v>
       </c>
+      <c r="AI104" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AJ104" s="7">
+        <f t="shared" si="28"/>
+        <v>1834.2251999999999</v>
+      </c>
+      <c r="AK104" s="1">
+        <f t="shared" si="27"/>
+        <v>94.248427672955955</v>
+      </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>103</v>
       </c>
@@ -13753,11 +16772,11 @@
         <v>17.63</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>181.58900000000003</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1870.3667000000003</v>
       </c>
       <c r="F105" s="6"/>
@@ -13768,14 +16787,14 @@
         <v>10.3</v>
       </c>
       <c r="I105" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18.524271844660195</v>
       </c>
       <c r="J105" s="6">
         <v>190.8</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1965.2400000000002</v>
       </c>
       <c r="L105" s="6"/>
@@ -13789,11 +16808,11 @@
         <v>70.53</v>
       </c>
       <c r="P105" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>726.45900000000006</v>
       </c>
       <c r="Q105" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7482.5277000000015</v>
       </c>
       <c r="R105" s="6"/>
@@ -13808,11 +16827,11 @@
         <v>35.26</v>
       </c>
       <c r="W105" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>363.17800000000005</v>
       </c>
       <c r="X105" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3740.7334000000005</v>
       </c>
       <c r="Y105" s="6"/>
@@ -13826,23 +16845,34 @@
         <v>17.63</v>
       </c>
       <c r="AC105" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>181.58900000000003</v>
       </c>
       <c r="AD105" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1870.3667000000003</v>
       </c>
       <c r="AF105" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>95.172431865828088</v>
       </c>
       <c r="AG105" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>95.172431865828088</v>
       </c>
+      <c r="AI105" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="AJ105" s="7">
+        <f t="shared" si="28"/>
+        <v>1870.3667000000003</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="27"/>
+        <v>95.172431865828088</v>
+      </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>104</v>
       </c>
@@ -13853,11 +16883,11 @@
         <v>17.63</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>183.352</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1906.8608000000002</v>
       </c>
       <c r="F106" s="6"/>
@@ -13868,14 +16898,14 @@
         <v>10.4</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18.346153846153847</v>
       </c>
       <c r="J106" s="6">
         <v>190.8</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1984.3200000000002</v>
       </c>
       <c r="L106" s="6"/>
@@ -13889,11 +16919,11 @@
         <v>70.53</v>
       </c>
       <c r="P106" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>733.51200000000006</v>
       </c>
       <c r="Q106" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7628.5248000000011</v>
       </c>
       <c r="R106" s="6"/>
@@ -13908,11 +16938,11 @@
         <v>35.26</v>
       </c>
       <c r="W106" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>366.70400000000001</v>
       </c>
       <c r="X106" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3813.7216000000003</v>
       </c>
       <c r="Y106" s="6"/>
@@ -13926,23 +16956,34 @@
         <v>17.63</v>
       </c>
       <c r="AC106" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>183.352</v>
       </c>
       <c r="AD106" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1906.8608000000002</v>
       </c>
       <c r="AF106" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>96.096436058700206</v>
       </c>
       <c r="AG106" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>96.096436058700206</v>
       </c>
+      <c r="AI106" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="AJ106" s="7">
+        <f t="shared" si="28"/>
+        <v>1906.8608000000002</v>
+      </c>
+      <c r="AK106" s="1">
+        <f t="shared" si="27"/>
+        <v>96.096436058700206</v>
+      </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>105</v>
       </c>
@@ -13953,11 +16994,11 @@
         <v>17.63</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>185.11500000000001</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1943.7075</v>
       </c>
       <c r="F107" s="6"/>
@@ -13968,14 +17009,14 @@
         <v>10.5</v>
       </c>
       <c r="I107" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18.171428571428571</v>
       </c>
       <c r="J107" s="6">
         <v>190.8</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2003.4</v>
       </c>
       <c r="L107" s="6"/>
@@ -13989,11 +17030,11 @@
         <v>70.53</v>
       </c>
       <c r="P107" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>740.56499999999994</v>
       </c>
       <c r="Q107" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7775.9324999999999</v>
       </c>
       <c r="R107" s="6"/>
@@ -14008,11 +17049,11 @@
         <v>35.26</v>
       </c>
       <c r="W107" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>370.23</v>
       </c>
       <c r="X107" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3887.415</v>
       </c>
       <c r="Y107" s="6"/>
@@ -14026,23 +17067,34 @@
         <v>17.63</v>
       </c>
       <c r="AC107" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>185.11500000000001</v>
       </c>
       <c r="AD107" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1943.7075</v>
       </c>
       <c r="AF107" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>97.020440251572325</v>
       </c>
       <c r="AG107" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>97.020440251572325</v>
       </c>
+      <c r="AI107" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="AJ107" s="7">
+        <f t="shared" si="28"/>
+        <v>1943.7075</v>
+      </c>
+      <c r="AK107" s="1">
+        <f t="shared" si="27"/>
+        <v>97.020440251572325</v>
+      </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>106</v>
       </c>
@@ -14053,11 +17105,11 @@
         <v>17.63</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>186.87800000000001</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1980.9068</v>
       </c>
       <c r="F108" s="6"/>
@@ -14068,14 +17120,14 @@
         <v>10.6</v>
       </c>
       <c r="I108" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="J108" s="6">
         <v>190.8</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2022.48</v>
       </c>
       <c r="L108" s="6"/>
@@ -14089,11 +17141,11 @@
         <v>70.53</v>
       </c>
       <c r="P108" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>747.61800000000005</v>
       </c>
       <c r="Q108" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7924.7507999999998</v>
       </c>
       <c r="R108" s="6"/>
@@ -14108,11 +17160,11 @@
         <v>35.26</v>
       </c>
       <c r="W108" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>373.75600000000003</v>
       </c>
       <c r="X108" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3961.8136</v>
       </c>
       <c r="Y108" s="6"/>
@@ -14126,23 +17178,34 @@
         <v>17.63</v>
       </c>
       <c r="AC108" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>186.87800000000001</v>
       </c>
       <c r="AD108" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1980.9068</v>
       </c>
       <c r="AF108" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>97.944444444444443</v>
       </c>
       <c r="AG108" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>97.944444444444443</v>
       </c>
+      <c r="AI108" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="AJ108" s="7">
+        <f t="shared" si="28"/>
+        <v>1980.9068</v>
+      </c>
+      <c r="AK108" s="1">
+        <f t="shared" si="27"/>
+        <v>97.944444444444443</v>
+      </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>107</v>
       </c>
@@ -14153,11 +17216,11 @@
         <v>17.63</v>
       </c>
       <c r="D109" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>188.64099999999996</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2018.4586999999995</v>
       </c>
       <c r="F109" s="6"/>
@@ -14168,14 +17231,14 @@
         <v>10.7</v>
       </c>
       <c r="I109" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>17.831775700934582</v>
       </c>
       <c r="J109" s="6">
         <v>190.8</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2041.56</v>
       </c>
       <c r="L109" s="6"/>
@@ -14189,11 +17252,11 @@
         <v>70.53</v>
       </c>
       <c r="P109" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>754.67099999999994</v>
       </c>
       <c r="Q109" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8074.979699999999</v>
       </c>
       <c r="R109" s="6"/>
@@ -14208,11 +17271,11 @@
         <v>35.26</v>
       </c>
       <c r="W109" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>377.28199999999993</v>
       </c>
       <c r="X109" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4036.9173999999989</v>
       </c>
       <c r="Y109" s="6"/>
@@ -14226,23 +17289,34 @@
         <v>17.63</v>
       </c>
       <c r="AC109" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>188.64099999999996</v>
       </c>
       <c r="AD109" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2018.4586999999995</v>
       </c>
       <c r="AF109" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>98.868448637316547</v>
       </c>
       <c r="AG109" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>98.868448637316547</v>
       </c>
+      <c r="AI109" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="AJ109" s="7">
+        <f t="shared" si="28"/>
+        <v>2018.4586999999995</v>
+      </c>
+      <c r="AK109" s="1">
+        <f t="shared" si="27"/>
+        <v>98.868448637316547</v>
+      </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>108</v>
       </c>
@@ -14253,11 +17327,11 @@
         <v>17.63</v>
       </c>
       <c r="D110" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>190.404</v>
       </c>
       <c r="E110" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2056.3632000000002</v>
       </c>
       <c r="F110" s="6"/>
@@ -14268,14 +17342,14 @@
         <v>10.8</v>
       </c>
       <c r="I110" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>17.666666666666668</v>
       </c>
       <c r="J110" s="6">
         <v>190.8</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2060.6400000000003</v>
       </c>
       <c r="L110" s="6"/>
@@ -14289,11 +17363,11 @@
         <v>70.53</v>
       </c>
       <c r="P110" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>761.72400000000005</v>
       </c>
       <c r="Q110" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8226.619200000001</v>
       </c>
       <c r="R110" s="6"/>
@@ -14308,11 +17382,11 @@
         <v>35.26</v>
       </c>
       <c r="W110" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>380.80799999999999</v>
       </c>
       <c r="X110" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4112.7264000000005</v>
       </c>
       <c r="Y110" s="6"/>
@@ -14326,31 +17400,45 @@
         <v>17.63</v>
       </c>
       <c r="AC110" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>190.404</v>
       </c>
       <c r="AD110" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2056.3632000000002</v>
       </c>
       <c r="AF110" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>99.792452830188665</v>
       </c>
       <c r="AG110" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>99.792452830188665</v>
       </c>
+      <c r="AI110" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="AJ110" s="7">
+        <f t="shared" si="28"/>
+        <v>2056.3632000000002</v>
+      </c>
+      <c r="AK110" s="1">
+        <f t="shared" si="27"/>
+        <v>99.792452830188665</v>
+      </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AF111" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AG111" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="AK111" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AF112" s="1">
         <f>AVERAGEA(AF3:AF110)</f>
         <v>69.533149895178184</v>
@@ -14358,6 +17446,10 @@
       <c r="AG112" s="1">
         <f>AVERAGEA(AG3:AG110)</f>
         <v>50.358228511530392</v>
+      </c>
+      <c r="AK112" s="1">
+        <f>AVERAGEA(AK3:AK110)</f>
+        <v>76.306923533291666</v>
       </c>
     </row>
   </sheetData>
@@ -14553,18 +17645,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14587,14 +17679,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C192F64D-7ECE-4521-993E-5E25853B3815}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A570645-99A3-4C0F-AA19-1EEC7A6ACC97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -14609,4 +17693,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C192F64D-7ECE-4521-993E-5E25853B3815}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>